--- a/Document/8.1.ProjectTestCaseSprint1.xlsx
+++ b/Document/8.1.ProjectTestCaseSprint1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="658">
   <si>
     <t>TEST CASE SYSTEM SPRINT 1</t>
   </si>
@@ -1425,21 +1425,12 @@
     <t>Hệ thống gửi thông tin đơn hàng đến nhân viên/ chủ quầy</t>
   </si>
   <si>
-    <t>Kiểm tra việc tính tổng tiền hợp lệ dựa vào giá món ăn</t>
-  </si>
-  <si>
-    <t>Tổng tiền hiển thị là 450.000đ</t>
-  </si>
-  <si>
     <t>Kiểm tra việc hiển thị đúng thông tin món ăn mà người dùng chọn</t>
   </si>
   <si>
     <t>Hiển thị đúng tên món, ảnh, giá tiền, số lượng như đã chọn</t>
   </si>
   <si>
-    <t>1. Có 3 món, mỗi món giá 150.000đ</t>
-  </si>
-  <si>
     <t>1. Load lại/Truy cập màn hình giỏ hàng</t>
   </si>
   <si>
@@ -1449,9 +1440,6 @@
     <t>1. Nhấn biểu tượng "&lt;" (quay lại)</t>
   </si>
   <si>
-    <t>Quay lại đúng màn hình trước đó (danh sách món ăn hoặc menu quầy)</t>
-  </si>
-  <si>
     <t>Passed FUNC-QLGH01</t>
   </si>
   <si>
@@ -1486,9 +1474,6 @@
   </si>
   <si>
     <t>Passed FUNC-QLGH02</t>
-  </si>
-  <si>
-    <t>Khi người dùng nhập "-2" thì tại vị trí số lượng tự động nhảy về 0</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra hiển thị cập nhật tính tổng thành công khi người dùng nhập đúng sau mỗi lần tăng/giảm hoặc xóa món. </t>
@@ -1720,9 +1705,6 @@
 3. Chọn button [Đơn hàng của tôi]</t>
   </si>
   <si>
-    <t>Mã đơn, thời gian, bàn, món ăn, trạng thái, ghi chú, giá… hiển thị đúng với dữ liệu người dùng chọn</t>
-  </si>
-  <si>
     <t>Kiểm tra hiển thị thông tin đơn hàng của người dùng chọn đúng với dữ liệu đơn thực tế</t>
   </si>
   <si>
@@ -2023,9 +2005,6 @@
     <t>1. Nhập "2" vào số lượng món ăn</t>
   </si>
   <si>
-    <t>Số lượng món ăn cho phép nhập hợp lệ lớn hơn 0</t>
-  </si>
-  <si>
     <t>Kiểm tra việc hiển thị màn hình thành công khi người dùng chọn button [Thêm món tương tự]</t>
   </si>
   <si>
@@ -2093,20 +2072,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra việc hủy thành công món ăn khi người dùng chọn button [Hủy] trên thông báo [Xóa món ăn]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Nhấn vào nút [Sửa] tại một quầy
-2. Chọn button [Xóa]
-3. Chọn button [Hủy]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Món ăn không được xóa và vẫn còn trong giỏ hàng
-</t>
-  </si>
-  <si>
     <t>Kiểm tra cập nhật tổng tiền khi người dùng xóa một món bất kì trong giỏ hàng</t>
   </si>
   <si>
@@ -2132,12 +2097,6 @@
   </si>
   <si>
     <t>FUNC-QLGH19</t>
-  </si>
-  <si>
-    <t>FUNC-QLGH20</t>
-  </si>
-  <si>
-    <t>FUNC-QLGH21</t>
   </si>
   <si>
     <t>[Ghi chú món ăn] Textbox</t>
@@ -2268,9 +2227,6 @@
     <t>Tên nhân viên hiển thị chính xác đúng với quầy mà nhân viên đó được phân công.</t>
   </si>
   <si>
-    <t>Chưa thấy điều hướng sang giao diện bàn</t>
-  </si>
-  <si>
     <t>Khi bấm "Thêm vào giỏ hàng thì không thấy hoạt động"</t>
   </si>
   <si>
@@ -2300,10 +2256,32 @@
     <t>1. Nhập " Lẩu " đến textbox [Bạn đang cần tìm món gì?]</t>
   </si>
   <si>
-    <t>Đợi Minh code xong đơn hàng</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo "Không tìm thấy món ăn nào phù hợp với từ khóa"</t>
+  </si>
+  <si>
+    <t>Không cho phép nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>Hiển thị tùy chọn chỉnh sửa món ăn</t>
+  </si>
+  <si>
+    <t>Chưa code</t>
+  </si>
+  <si>
+    <t>Hiển thị hộp thoại thông báo xác nhận "Bạn có chắc chắn muốn thoát?'</t>
+  </si>
+  <si>
+    <t>Mã đơn, thời gian, bàn, món ăn, trạng thái, giá… hiển thị đúng với dữ liệu người dùng chọn</t>
+  </si>
+  <si>
+    <t>Chưa code  đơn hàng của tôi nên không xem được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật chính xác theo số lượng món riêng của từng quầy
+Tổng món tính theo số loại món, không phải số lượng </t>
+  </si>
+  <si>
+    <t>1. Chọn trên [Đánh giá] button</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2601,12 +2579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3428,9 +3400,6 @@
     <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3554,6 +3523,7 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -4143,15 +4113,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>320842</xdr:colOff>
+      <xdr:colOff>358942</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>100265</xdr:rowOff>
+      <xdr:rowOff>92645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2546684</xdr:colOff>
+      <xdr:colOff>2584784</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5017127</xdr:rowOff>
+      <xdr:rowOff>5009507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4173,7 +4143,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9184105" y="1243265"/>
+          <a:off x="9221002" y="1243265"/>
           <a:ext cx="2225842" cy="4916862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4755,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -4769,31 +4739,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" customHeight="1">
       <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="56" t="s">
@@ -4813,10 +4783,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="166">
+      <c r="A5" s="165">
         <v>1</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="80" t="s">
@@ -4825,38 +4795,38 @@
       <c r="D5" s="150">
         <v>19</v>
       </c>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="171" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="167"/>
-      <c r="B6" s="170"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="80" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="151">
         <v>24</v>
       </c>
-      <c r="E6" s="172"/>
+      <c r="E6" s="171"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="167"/>
-      <c r="B7" s="170"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="80" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="151"/>
-      <c r="E7" s="172"/>
+      <c r="E7" s="171"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="168"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="80" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="151"/>
-      <c r="E8" s="172"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="57">
@@ -4903,7 +4873,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="151">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="152" t="s">
         <v>65</v>
@@ -4946,7 +4916,7 @@
     <row r="14" spans="1:5">
       <c r="D14" s="8">
         <f>SUM(D5:D13)</f>
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4966,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -4992,13 +4962,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -5007,13 +4977,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -5094,64 +5064,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -5170,51 +5140,51 @@
       <c r="L9" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="202" t="s">
-        <v>539</v>
-      </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
+      <c r="A10" s="201" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A11" s="120" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -5224,28 +5194,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A12" s="120" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -5255,28 +5225,28 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A13" s="120" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -5286,28 +5256,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A14" s="120" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="123" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -5316,46 +5286,48 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1">
-      <c r="A15" s="203" t="s">
-        <v>540</v>
-      </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
+      <c r="A15" s="202" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A16" s="131" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D16" s="136"/>
       <c r="E16" s="101" t="s">
-        <v>542</v>
-      </c>
-      <c r="F16" s="147"/>
+        <v>536</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>536</v>
+      </c>
       <c r="G16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -5365,30 +5337,32 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A17" s="131" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B17" s="101" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D17" s="131" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E17" s="101" t="s">
-        <v>552</v>
-      </c>
-      <c r="F17" s="147"/>
+        <v>546</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>546</v>
+      </c>
       <c r="G17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -5398,30 +5372,32 @@
     </row>
     <row r="18" spans="1:13" ht="67.2">
       <c r="A18" s="131" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B18" s="101" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C18" s="101" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D18" s="131" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="F18" s="136"/>
+        <v>549</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>549</v>
+      </c>
       <c r="G18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -5431,30 +5407,32 @@
     </row>
     <row r="19" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A19" s="131" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B19" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="E19" s="101" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>551</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>510</v>
-      </c>
-      <c r="F19" s="135"/>
+      <c r="F19" s="101" t="s">
+        <v>504</v>
+      </c>
       <c r="G19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -5464,30 +5442,32 @@
     </row>
     <row r="20" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A20" s="131" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D20" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="E20" s="101" t="s">
         <v>551</v>
       </c>
-      <c r="E20" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="F20" s="135"/>
+      <c r="F20" s="101" t="s">
+        <v>551</v>
+      </c>
       <c r="G20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -5604,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -5630,13 +5610,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -5645,13 +5625,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="198" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="B2" s="197" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -5732,64 +5712,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -5808,51 +5788,51 @@
       <c r="L9" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="202" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
+      <c r="A10" s="201" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A11" s="120" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -5862,28 +5842,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A12" s="120" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -5893,28 +5873,28 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A13" s="120" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -5924,28 +5904,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A14" s="120" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="123" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -5955,28 +5935,28 @@
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A15" s="120" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B15" s="131" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="123" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -5986,28 +5966,28 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A16" s="120" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B16" s="131" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
       <c r="E16" s="123" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -6017,28 +5997,28 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A17" s="120" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B17" s="131" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="123" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -6048,7 +6028,7 @@
     </row>
     <row r="18" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A18" s="120" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B18" s="131" t="s">
         <v>74</v>
@@ -6056,20 +6036,20 @@
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
       <c r="E18" s="123" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -6077,30 +6057,30 @@
       </c>
       <c r="M18" s="122"/>
     </row>
-    <row r="19" spans="1:13" s="109" customFormat="1" ht="67.2">
+    <row r="19" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A19" s="120" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="123" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -6109,46 +6089,48 @@
       <c r="M19" s="122"/>
     </row>
     <row r="20" spans="1:13" s="109" customFormat="1">
-      <c r="A20" s="203" t="s">
-        <v>453</v>
-      </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
+      <c r="A20" s="202" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="202"/>
     </row>
     <row r="21" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A21" s="131" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D21" s="146"/>
       <c r="E21" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="124" t="s">
-        <v>639</v>
+        <v>491</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>652</v>
+      </c>
+      <c r="G21" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K21" s="125"/>
       <c r="L21" s="126" t="s">
@@ -6158,30 +6140,32 @@
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A22" s="131" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D22" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E22" s="101" t="s">
-        <v>499</v>
-      </c>
-      <c r="F22" s="147"/>
+        <v>654</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>654</v>
+      </c>
       <c r="G22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H22" s="125"/>
       <c r="I22" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="125"/>
       <c r="L22" s="126" t="s">
@@ -6191,30 +6175,32 @@
     </row>
     <row r="23" spans="1:13" ht="134.4">
       <c r="A23" s="131" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D23" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E23" s="101" t="s">
-        <v>503</v>
-      </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="124" t="s">
-        <v>639</v>
+        <v>497</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H23" s="125"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="125"/>
       <c r="L23" s="126" t="s">
@@ -6224,30 +6210,32 @@
     </row>
     <row r="24" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A24" s="131" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B24" s="101" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="E24" s="101" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>508</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>510</v>
-      </c>
-      <c r="F24" s="135"/>
+      <c r="F24" s="101" t="s">
+        <v>504</v>
+      </c>
       <c r="G24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K24" s="125"/>
       <c r="L24" s="126" t="s">
@@ -6257,30 +6245,32 @@
     </row>
     <row r="25" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="131" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D25" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>512</v>
-      </c>
-      <c r="F25" s="135"/>
+        <v>506</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>506</v>
+      </c>
       <c r="G25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K25" s="125"/>
       <c r="L25" s="126" t="s">
@@ -6290,30 +6280,32 @@
     </row>
     <row r="26" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="131" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D26" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>516</v>
-      </c>
-      <c r="F26" s="135"/>
-      <c r="G26" s="124" t="s">
-        <v>639</v>
+        <v>510</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G26" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H26" s="125"/>
       <c r="I26" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K26" s="125"/>
       <c r="L26" s="126" t="s">
@@ -6323,30 +6315,32 @@
     </row>
     <row r="27" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
       <c r="A27" s="131" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B27" s="131" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C27" s="131" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D27" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E27" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="124" t="s">
-        <v>639</v>
+        <v>513</v>
+      </c>
+      <c r="F27" s="203" t="s">
+        <v>655</v>
+      </c>
+      <c r="G27" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H27" s="125"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K27" s="125"/>
       <c r="L27" s="126" t="s">
@@ -6356,30 +6350,32 @@
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
       <c r="A28" s="131" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D28" s="131" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>529</v>
-      </c>
-      <c r="F28" s="146"/>
+        <v>523</v>
+      </c>
+      <c r="F28" s="131" t="s">
+        <v>656</v>
+      </c>
       <c r="G28" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H28" s="125"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="126" t="s">
@@ -6481,7 +6477,7 @@
     <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 G21:G28 J21:J28">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 J21:J28 G21:G28">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6512,24 +6508,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="24.6">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.2">
       <c r="A2" s="2"/>
@@ -6553,22 +6549,22 @@
       <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="59"/>
-      <c r="E3" s="176" t="s">
+      <c r="E3" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="182" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="183"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60"/>
       <c r="N3" s="60"/>
@@ -6577,20 +6573,20 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A4" s="58"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="185" t="s">
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="187"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="186"/>
       <c r="L4" s="61"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
@@ -6599,20 +6595,20 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A5" s="58"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="61"/>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="179">
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="178">
         <v>44114</v>
       </c>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="180"/>
       <c r="L5" s="61"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
@@ -6623,18 +6619,18 @@
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -6644,52 +6640,52 @@
     <row r="7" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178" t="s">
+      <c r="F7" s="177"/>
+      <c r="G7" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178" t="s">
+      <c r="H7" s="177"/>
+      <c r="I7" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178" t="s">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="178"/>
-      <c r="M7" s="173" t="s">
+      <c r="L7" s="177"/>
+      <c r="M7" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="173"/>
-      <c r="O7" s="174" t="s">
+      <c r="N7" s="172"/>
+      <c r="O7" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="174"/>
+      <c r="P7" s="173"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A8" s="67"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="69" t="s">
@@ -7438,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C27" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -7464,13 +7460,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -7479,13 +7475,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -7564,64 +7560,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="195" t="s">
+      <c r="E7" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="195" t="s">
+      <c r="G7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195" t="s">
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195" t="s">
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -7640,24 +7636,24 @@
       <c r="L9" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="195"/>
+      <c r="M9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="193" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
@@ -7675,14 +7671,14 @@
         <v>152</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="55" t="s">
@@ -7706,14 +7702,14 @@
         <v>153</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="55" t="s">
@@ -7737,14 +7733,14 @@
         <v>153</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="55" t="s">
@@ -7768,14 +7764,14 @@
         <v>154</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="55" t="s">
@@ -7799,14 +7795,14 @@
         <v>155</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="55" t="s">
@@ -7830,14 +7826,14 @@
         <v>156</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="55" t="s">
@@ -7861,14 +7857,14 @@
         <v>154</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="55" t="s">
@@ -7892,14 +7888,14 @@
         <v>157</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="93"/>
       <c r="L18" s="55" t="s">
@@ -7923,14 +7919,14 @@
         <v>156</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="93"/>
       <c r="I19" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="93"/>
       <c r="L19" s="55" t="s">
@@ -7954,14 +7950,14 @@
         <v>156</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="55" t="s">
@@ -7970,21 +7966,21 @@
       <c r="M20" s="93"/>
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="191" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A22" s="96" t="s">
@@ -7994,24 +7990,24 @@
         <v>79</v>
       </c>
       <c r="C22" s="139" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D22" s="140"/>
       <c r="E22" s="139" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H22" s="84"/>
       <c r="I22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="84"/>
       <c r="L22" s="55" t="s">
@@ -8036,17 +8032,17 @@
         <v>82</v>
       </c>
       <c r="F23" s="139" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="84"/>
       <c r="I23" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="84"/>
       <c r="L23" s="55" t="s">
@@ -8071,17 +8067,17 @@
         <v>86</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G24" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="55" t="s">
@@ -8109,14 +8105,14 @@
         <v>110</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="84"/>
       <c r="I25" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K25" s="84"/>
       <c r="L25" s="55" t="s">
@@ -8141,17 +8137,17 @@
         <v>88</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="G26" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H26" s="84"/>
       <c r="I26" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K26" s="84"/>
       <c r="L26" s="55" t="s">
@@ -8179,14 +8175,14 @@
         <v>90</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H27" s="84"/>
       <c r="I27" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K27" s="84"/>
       <c r="L27" s="55" t="s">
@@ -8211,17 +8207,17 @@
         <v>92</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G28" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="55" t="s">
@@ -8246,17 +8242,17 @@
         <v>94</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="G29" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H29" s="84"/>
       <c r="I29" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="55" t="s">
@@ -8271,7 +8267,9 @@
       <c r="B30" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" s="141" t="s">
+        <v>657</v>
+      </c>
       <c r="D30" s="101" t="s">
         <v>295</v>
       </c>
@@ -8279,17 +8277,17 @@
         <v>96</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G30" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H30" s="84"/>
       <c r="I30" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="154" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K30" s="84"/>
       <c r="L30" s="55" t="s">
@@ -8344,8 +8342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M31"/>
+    <sheetView topLeftCell="D26" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -8370,13 +8368,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -8385,13 +8383,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -8470,64 +8468,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="195" t="s">
+      <c r="E7" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="195" t="s">
+      <c r="G7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195" t="s">
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195" t="s">
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -8546,24 +8544,24 @@
       <c r="L9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="195"/>
+      <c r="M9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A11" s="50" t="s">
@@ -8581,14 +8579,14 @@
         <v>158</v>
       </c>
       <c r="G11" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="156" t="s">
@@ -8612,14 +8610,14 @@
         <v>159</v>
       </c>
       <c r="G12" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="156" t="s">
@@ -8643,14 +8641,14 @@
         <v>159</v>
       </c>
       <c r="G13" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="156" t="s">
@@ -8674,14 +8672,14 @@
         <v>159</v>
       </c>
       <c r="G14" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="82"/>
       <c r="L14" s="156" t="s">
@@ -8705,14 +8703,14 @@
         <v>159</v>
       </c>
       <c r="G15" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="156" t="s">
@@ -8736,14 +8734,14 @@
         <v>159</v>
       </c>
       <c r="G16" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="156" t="s">
@@ -8767,14 +8765,14 @@
         <v>159</v>
       </c>
       <c r="G17" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="156" t="s">
@@ -8798,14 +8796,14 @@
         <v>159</v>
       </c>
       <c r="G18" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="156" t="s">
@@ -8829,14 +8827,14 @@
         <v>159</v>
       </c>
       <c r="G19" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="156" t="s">
@@ -8860,14 +8858,14 @@
         <v>159</v>
       </c>
       <c r="G20" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="82"/>
       <c r="I20" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="156" t="s">
@@ -8891,14 +8889,14 @@
         <v>159</v>
       </c>
       <c r="G21" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H21" s="82"/>
       <c r="I21" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="156" t="s">
@@ -8907,25 +8905,25 @@
       <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="131.4" customHeight="1">
       <c r="A23" s="157" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B23" s="139" t="s">
         <v>80</v>
@@ -8941,14 +8939,14 @@
         <v>80</v>
       </c>
       <c r="G23" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="84"/>
       <c r="I23" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="156" t="s">
@@ -8973,17 +8971,17 @@
         <v>136</v>
       </c>
       <c r="F24" s="158" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G24" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K24" s="82"/>
       <c r="L24" s="156" t="s">
@@ -8996,35 +8994,35 @@
         <v>249</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="D25" s="159" t="s">
         <v>296</v>
       </c>
       <c r="E25" s="105" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G25" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="84"/>
       <c r="I25" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="155" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M25"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="157" t="s">
@@ -9042,26 +9040,24 @@
       <c r="E26" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G26" s="160" t="s">
-        <v>641</v>
+      <c r="F26" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H26" s="84"/>
       <c r="I26" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="160" t="s">
-        <v>641</v>
+      <c r="J26" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="157" t="s">
@@ -9079,26 +9075,24 @@
       <c r="E27" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G27" s="160" t="s">
-        <v>641</v>
+      <c r="F27" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H27" s="84"/>
       <c r="I27" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="160" t="s">
-        <v>641</v>
+      <c r="J27" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="157" t="s">
@@ -9116,26 +9110,24 @@
       <c r="E28" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G28" s="160" t="s">
-        <v>641</v>
+      <c r="F28" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="160" t="s">
-        <v>641</v>
+      <c r="J28" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="157" t="s">
@@ -9153,26 +9145,24 @@
       <c r="E29" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G29" s="160" t="s">
-        <v>641</v>
+      <c r="F29" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H29" s="84"/>
       <c r="I29" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="160" t="s">
-        <v>641</v>
+      <c r="J29" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="157" t="s">
@@ -9190,26 +9180,24 @@
       <c r="E30" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>641</v>
+      <c r="F30" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H30" s="84"/>
       <c r="I30" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="160" t="s">
-        <v>641</v>
+      <c r="J30" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K30" s="82"/>
       <c r="L30" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="157" t="s">
@@ -9227,26 +9215,24 @@
       <c r="E31" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="158" t="s">
-        <v>652</v>
-      </c>
-      <c r="G31" s="160" t="s">
-        <v>641</v>
+      <c r="F31" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="H31" s="84"/>
       <c r="I31" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="160" t="s">
-        <v>641</v>
+      <c r="J31" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="K31" s="82"/>
       <c r="L31" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="162" t="s">
-        <v>662</v>
-      </c>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
     <row r="33" customFormat="1" ht="103.8" customHeight="1"/>
@@ -9292,7 +9278,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -9317,13 +9303,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -9332,13 +9318,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -9417,64 +9403,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="195" t="s">
+      <c r="E7" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="195" t="s">
+      <c r="G7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195" t="s">
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195" t="s">
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -9493,24 +9479,24 @@
       <c r="L9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="195"/>
+      <c r="M9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
@@ -9528,14 +9514,14 @@
         <v>160</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="55" t="s">
@@ -9559,14 +9545,14 @@
         <v>158</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="55" t="s">
@@ -9590,14 +9576,14 @@
         <v>123</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="55" t="s">
@@ -9621,14 +9607,14 @@
         <v>155</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="82"/>
       <c r="L14" s="55" t="s">
@@ -9652,14 +9638,14 @@
         <v>124</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="55" t="s">
@@ -9683,14 +9669,14 @@
         <v>161</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="55" t="s">
@@ -9714,14 +9700,14 @@
         <v>130</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="55" t="s">
@@ -9745,14 +9731,14 @@
         <v>162</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="55" t="s">
@@ -9776,14 +9762,14 @@
         <v>163</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="55" t="s">
@@ -9807,14 +9793,14 @@
         <v>134</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="55" t="s">
@@ -9838,14 +9824,14 @@
         <v>164</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H21" s="93"/>
       <c r="I21" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K21" s="93"/>
       <c r="L21" s="55" t="s">
@@ -9869,14 +9855,14 @@
         <v>164</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H22" s="93"/>
       <c r="I22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="93"/>
       <c r="L22" s="55" t="s">
@@ -9900,14 +9886,14 @@
         <v>164</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="93"/>
       <c r="I23" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="93"/>
       <c r="L23" s="55" t="s">
@@ -9916,21 +9902,21 @@
       <c r="M23" s="93"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="191" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="193"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="108">
       <c r="A25" s="96" t="s">
@@ -9948,14 +9934,14 @@
       </c>
       <c r="F25" s="97"/>
       <c r="G25" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H25" s="82"/>
       <c r="I25" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="55" t="s">
@@ -9981,14 +9967,14 @@
       </c>
       <c r="F26" s="97"/>
       <c r="G26" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H26" s="82"/>
       <c r="I26" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="55" t="s">
@@ -10014,14 +10000,14 @@
       </c>
       <c r="F27" s="97"/>
       <c r="G27" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H27" s="82"/>
       <c r="I27" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="55" t="s">
@@ -10047,14 +10033,14 @@
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H28" s="82"/>
       <c r="I28" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="55" t="s">
@@ -10080,14 +10066,14 @@
       </c>
       <c r="F29" s="97"/>
       <c r="G29" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H29" s="82"/>
       <c r="I29" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="55" t="s">
@@ -10113,14 +10099,14 @@
       </c>
       <c r="F30" s="97"/>
       <c r="G30" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H30" s="82"/>
       <c r="I30" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="160" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K30" s="82"/>
       <c r="L30" s="55" t="s">
@@ -10246,13 +10232,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -10261,13 +10247,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -10346,64 +10332,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="195" t="s">
+      <c r="E7" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="195" t="s">
+      <c r="G7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="195" t="s">
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195" t="s">
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -10422,24 +10408,24 @@
       <c r="L9" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="195"/>
+      <c r="M9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="193" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
@@ -10694,21 +10680,21 @@
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="108">
       <c r="A24" s="96" t="s">
@@ -10854,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -10880,13 +10866,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -10895,13 +10881,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -10981,64 +10967,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -11057,24 +11043,24 @@
       <c r="L9" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="201" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="134.4">
       <c r="A11" s="120" t="s">
@@ -11092,14 +11078,14 @@
         <v>326</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -11123,14 +11109,14 @@
         <v>166</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -11154,14 +11140,14 @@
         <v>168</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -11171,28 +11157,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A14" s="120" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B14" s="145" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
       <c r="E14" s="153" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F14" s="153" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -11202,28 +11188,28 @@
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A15" s="120" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B15" s="145" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
       <c r="E15" s="153" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -11233,28 +11219,28 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A16" s="120" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B16" s="145" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C16" s="145"/>
       <c r="D16" s="145"/>
       <c r="E16" s="153" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -11264,28 +11250,28 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A17" s="120" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="145"/>
       <c r="E17" s="153" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -11295,28 +11281,28 @@
     </row>
     <row r="18" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A18" s="120" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
       <c r="E18" s="153" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -11326,28 +11312,28 @@
     </row>
     <row r="19" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A19" s="120" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C19" s="145"/>
       <c r="D19" s="145"/>
       <c r="E19" s="153" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -11357,28 +11343,28 @@
     </row>
     <row r="20" spans="1:13" s="109" customFormat="1" ht="134.4">
       <c r="A20" s="120" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C20" s="145"/>
       <c r="D20" s="145"/>
       <c r="E20" s="153" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -11387,21 +11373,21 @@
       <c r="M20" s="122"/>
     </row>
     <row r="21" spans="1:13" s="109" customFormat="1">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A22" s="128" t="s">
@@ -11421,14 +11407,14 @@
         <v>176</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H22" s="130"/>
       <c r="I22" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="130"/>
       <c r="L22" s="126" t="s">
@@ -11456,14 +11442,14 @@
         <v>179</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="130"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="130"/>
       <c r="L23" s="126" t="s">
@@ -11491,14 +11477,14 @@
         <v>184</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H24" s="136"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K24" s="136"/>
       <c r="L24" s="126" t="s">
@@ -11526,14 +11512,14 @@
         <v>185</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="135"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K25" s="135"/>
       <c r="L25" s="126" t="s">
@@ -11561,14 +11547,14 @@
         <v>188</v>
       </c>
       <c r="G26" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H26" s="135"/>
       <c r="I26" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K26" s="135"/>
       <c r="L26" s="126" t="s">
@@ -11593,17 +11579,17 @@
         <v>191</v>
       </c>
       <c r="F27" s="135" t="s">
-        <v>653</v>
-      </c>
-      <c r="G27" s="161" t="s">
-        <v>641</v>
+        <v>640</v>
+      </c>
+      <c r="G27" s="124" t="s">
+        <v>627</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K27" s="135"/>
       <c r="L27" s="126" t="s">
@@ -11627,18 +11613,18 @@
       <c r="E28" s="101" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="135" t="s">
-        <v>654</v>
-      </c>
-      <c r="G28" s="161" t="s">
-        <v>641</v>
+      <c r="F28" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>627</v>
       </c>
       <c r="H28" s="135"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K28" s="135"/>
       <c r="L28" s="126" t="s">
@@ -11666,14 +11652,14 @@
         <v>194</v>
       </c>
       <c r="G29" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H29" s="135"/>
       <c r="I29" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K29" s="135"/>
       <c r="L29" s="126" t="s">
@@ -11698,17 +11684,17 @@
         <v>191</v>
       </c>
       <c r="F30" s="135" t="s">
-        <v>654</v>
-      </c>
-      <c r="G30" s="161" t="s">
         <v>641</v>
+      </c>
+      <c r="G30" s="124" t="s">
+        <v>627</v>
       </c>
       <c r="H30" s="135"/>
       <c r="I30" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K30" s="135"/>
       <c r="L30" s="126" t="s">
@@ -11733,17 +11719,17 @@
         <v>191</v>
       </c>
       <c r="F31" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G31" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H31" s="135"/>
       <c r="I31" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J31" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K31" s="135"/>
       <c r="L31" s="126" t="s">
@@ -11768,17 +11754,17 @@
         <v>191</v>
       </c>
       <c r="F32" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G32" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H32" s="135"/>
       <c r="I32" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K32" s="135"/>
       <c r="L32" s="126" t="s">
@@ -11803,17 +11789,17 @@
         <v>191</v>
       </c>
       <c r="F33" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G33" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H33" s="135"/>
       <c r="I33" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J33" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K33" s="135"/>
       <c r="L33" s="126" t="s">
@@ -11838,17 +11824,17 @@
         <v>191</v>
       </c>
       <c r="F34" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G34" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H34" s="135"/>
       <c r="I34" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K34" s="135"/>
       <c r="L34" s="126" t="s">
@@ -11873,17 +11859,17 @@
         <v>191</v>
       </c>
       <c r="F35" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G35" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H35" s="135"/>
       <c r="I35" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K35" s="135"/>
       <c r="L35" s="126" t="s">
@@ -11908,17 +11894,17 @@
         <v>191</v>
       </c>
       <c r="F36" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G36" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K36" s="135"/>
       <c r="L36" s="126" t="s">
@@ -11943,17 +11929,17 @@
         <v>191</v>
       </c>
       <c r="F37" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G37" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H37" s="135"/>
       <c r="I37" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K37" s="135"/>
       <c r="L37" s="126" t="s">
@@ -11978,17 +11964,17 @@
         <v>347</v>
       </c>
       <c r="F38" s="135" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G38" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H38" s="135"/>
       <c r="I38" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J38" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K38" s="135"/>
       <c r="L38" s="126" t="s">
@@ -12013,17 +11999,17 @@
         <v>209</v>
       </c>
       <c r="F39" s="138" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="G39" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H39" s="135"/>
       <c r="I39" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J39" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K39" s="135"/>
       <c r="L39" s="126" t="s">
@@ -12051,14 +12037,14 @@
         <v>322</v>
       </c>
       <c r="G40" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H40" s="135"/>
       <c r="I40" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J40" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K40" s="135"/>
       <c r="L40" s="126" t="s">
@@ -12071,29 +12057,29 @@
         <v>352</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C41" s="135" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D41" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F41" s="138" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G41" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H41" s="135"/>
       <c r="I41" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K41" s="135"/>
       <c r="L41" s="126" t="s">
@@ -12106,29 +12092,29 @@
         <v>353</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D42" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F42" s="138" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G42" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H42" s="135"/>
       <c r="I42" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J42" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K42" s="135"/>
       <c r="L42" s="126" t="s">
@@ -12144,26 +12130,26 @@
         <v>319</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D43" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F43" s="138" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G43" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H43" s="135"/>
       <c r="I43" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J43" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K43" s="135"/>
       <c r="L43" s="126" t="s">
@@ -12173,32 +12159,32 @@
     </row>
     <row r="44" spans="1:13" ht="113.4" customHeight="1">
       <c r="A44" s="128" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B44" s="135" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C44" s="135" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D44" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F44" s="138" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G44" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H44" s="135"/>
       <c r="I44" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J44" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K44" s="135"/>
       <c r="L44" s="126" t="s">
@@ -12208,32 +12194,32 @@
     </row>
     <row r="45" spans="1:13" ht="117.6">
       <c r="A45" s="128" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D45" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F45" s="138" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G45" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H45" s="135"/>
       <c r="I45" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K45" s="135"/>
       <c r="L45" s="126" t="s">
@@ -12243,32 +12229,32 @@
     </row>
     <row r="46" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A46" s="128" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D46" s="131" t="s">
         <v>317</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F46" s="138" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G46" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H46" s="135"/>
       <c r="I46" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J46" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K46" s="135"/>
       <c r="L46" s="126" t="s">
@@ -12379,7 +12365,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="B14" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -12404,13 +12390,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -12419,13 +12405,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -12505,64 +12491,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -12581,24 +12567,24 @@
       <c r="L9" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="201" t="s">
         <v>324</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="161.4" customHeight="1">
       <c r="A11" s="120" t="s">
@@ -12616,14 +12602,14 @@
         <v>326</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -12647,14 +12633,14 @@
         <v>328</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -12678,14 +12664,14 @@
         <v>168</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -12694,21 +12680,21 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="199" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="201"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A15" s="131" t="s">
@@ -12728,14 +12714,14 @@
         <v>333</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -12757,20 +12743,20 @@
         <v>335</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G16" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -12798,14 +12784,14 @@
         <v>339</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -12833,14 +12819,14 @@
         <v>339</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -12865,17 +12851,17 @@
         <v>339</v>
       </c>
       <c r="F19" s="135" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G19" s="161" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -12891,7 +12877,7 @@
         <v>344</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="D20" s="131" t="s">
         <v>335</v>
@@ -12903,14 +12889,14 @@
         <v>339</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -13021,10 +13007,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="42" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="B43" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -13049,13 +13035,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -13064,13 +13050,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -13152,64 +13138,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="199" t="s">
+      <c r="E7" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="199" t="s">
+      <c r="F7" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199" t="s">
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -13228,24 +13214,24 @@
       <c r="L9" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="199"/>
+      <c r="M9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="201" t="s">
         <v>368</v>
       </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="100.8">
       <c r="A11" s="120" t="s">
@@ -13257,20 +13243,20 @@
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -13288,20 +13274,20 @@
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -13319,20 +13305,20 @@
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -13356,14 +13342,14 @@
         <v>375</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -13381,20 +13367,20 @@
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="123" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -13412,20 +13398,20 @@
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
       <c r="E16" s="123" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -13443,20 +13429,20 @@
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="123" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -13474,20 +13460,20 @@
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
       <c r="E18" s="123" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -13505,20 +13491,20 @@
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="123" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -13536,20 +13522,20 @@
       <c r="C20" s="122"/>
       <c r="D20" s="122"/>
       <c r="E20" s="123" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -13567,20 +13553,20 @@
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
       <c r="E21" s="123" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F21" s="123" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K21" s="125"/>
       <c r="L21" s="126" t="s">
@@ -13598,20 +13584,20 @@
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F22" s="123" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H22" s="125"/>
       <c r="I22" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K22" s="125"/>
       <c r="L22" s="126" t="s">
@@ -13629,20 +13615,20 @@
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F23" s="123" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H23" s="125"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K23" s="125"/>
       <c r="L23" s="126" t="s">
@@ -13660,20 +13646,20 @@
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F24" s="123" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K24" s="125"/>
       <c r="L24" s="126" t="s">
@@ -13691,20 +13677,20 @@
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
       <c r="E25" s="123" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F25" s="123" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K25" s="125"/>
       <c r="L25" s="126" t="s">
@@ -13713,21 +13699,21 @@
       <c r="M25" s="122"/>
     </row>
     <row r="26" spans="1:13" s="109" customFormat="1">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="202" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
     </row>
     <row r="27" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A27" s="131" t="s">
@@ -13737,22 +13723,24 @@
         <v>401</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D27" s="146"/>
       <c r="E27" s="101" t="s">
-        <v>581</v>
-      </c>
-      <c r="F27" s="147"/>
+        <v>575</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>575</v>
+      </c>
       <c r="G27" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H27" s="125"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K27" s="125"/>
       <c r="L27" s="126" t="s">
@@ -13768,24 +13756,26 @@
         <v>403</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D28" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E28" s="101" t="s">
         <v>412</v>
       </c>
-      <c r="F28" s="147"/>
+      <c r="F28" s="101" t="s">
+        <v>412</v>
+      </c>
       <c r="G28" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H28" s="125"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="126" t="s">
@@ -13795,7 +13785,7 @@
     </row>
     <row r="29" spans="1:13" ht="103.8" customHeight="1">
       <c r="A29" s="131" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B29" s="101" t="s">
         <v>413</v>
@@ -13804,21 +13794,23 @@
         <v>414</v>
       </c>
       <c r="D29" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E29" s="101" t="s">
         <v>415</v>
       </c>
-      <c r="F29" s="136"/>
+      <c r="F29" s="101" t="s">
+        <v>415</v>
+      </c>
       <c r="G29" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H29" s="125"/>
       <c r="I29" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K29" s="125"/>
       <c r="L29" s="126" t="s">
@@ -13828,7 +13820,7 @@
     </row>
     <row r="30" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="131" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B30" s="101" t="s">
         <v>416</v>
@@ -13837,21 +13829,23 @@
         <v>417</v>
       </c>
       <c r="D30" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E30" s="101" t="s">
         <v>418</v>
       </c>
-      <c r="F30" s="135"/>
+      <c r="F30" s="101" t="s">
+        <v>418</v>
+      </c>
       <c r="G30" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H30" s="125"/>
       <c r="I30" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K30" s="125"/>
       <c r="L30" s="126" t="s">
@@ -13861,30 +13855,32 @@
     </row>
     <row r="31" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="131" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D31" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="F31" s="135"/>
+        <v>650</v>
+      </c>
+      <c r="F31" s="101" t="s">
+        <v>650</v>
+      </c>
       <c r="G31" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H31" s="125"/>
       <c r="I31" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J31" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K31" s="125"/>
       <c r="L31" s="126" t="s">
@@ -13894,30 +13890,32 @@
     </row>
     <row r="32" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A32" s="131" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D32" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E32" s="101" t="s">
-        <v>586</v>
-      </c>
-      <c r="F32" s="135"/>
+        <v>650</v>
+      </c>
+      <c r="F32" s="101" t="s">
+        <v>650</v>
+      </c>
       <c r="G32" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H32" s="125"/>
       <c r="I32" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K32" s="125"/>
       <c r="L32" s="126" t="s">
@@ -13927,7 +13925,7 @@
     </row>
     <row r="33" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A33" s="131" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B33" s="101" t="s">
         <v>419</v>
@@ -13941,16 +13939,18 @@
       <c r="E33" s="101" t="s">
         <v>421</v>
       </c>
-      <c r="F33" s="135"/>
+      <c r="F33" s="101" t="s">
+        <v>651</v>
+      </c>
       <c r="G33" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H33" s="125"/>
       <c r="I33" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J33" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K33" s="125"/>
       <c r="L33" s="126" t="s">
@@ -13960,30 +13960,32 @@
     </row>
     <row r="34" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A34" s="131" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D34" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E34" s="101" t="s">
-        <v>588</v>
-      </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="124" t="s">
-        <v>639</v>
+        <v>581</v>
+      </c>
+      <c r="F34" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G34" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H34" s="125"/>
       <c r="I34" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K34" s="125"/>
       <c r="L34" s="126" t="s">
@@ -13993,30 +13995,32 @@
     </row>
     <row r="35" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A35" s="131" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D35" s="131" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E35" s="101" t="s">
-        <v>592</v>
-      </c>
-      <c r="F35" s="135"/>
-      <c r="G35" s="124" t="s">
-        <v>639</v>
+        <v>585</v>
+      </c>
+      <c r="F35" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G35" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H35" s="125"/>
       <c r="I35" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K35" s="125"/>
       <c r="L35" s="126" t="s">
@@ -14026,30 +14030,32 @@
     </row>
     <row r="36" spans="1:13" s="134" customFormat="1" ht="117.6">
       <c r="A36" s="131" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D36" s="131" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E36" s="101" t="s">
-        <v>596</v>
-      </c>
-      <c r="F36" s="135"/>
-      <c r="G36" s="124" t="s">
-        <v>639</v>
+        <v>589</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G36" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H36" s="125"/>
       <c r="I36" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K36" s="125"/>
       <c r="L36" s="126" t="s">
@@ -14059,30 +14065,32 @@
     </row>
     <row r="37" spans="1:13" s="134" customFormat="1" ht="168">
       <c r="A37" s="131" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D37" s="131" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>599</v>
-      </c>
-      <c r="F37" s="135"/>
-      <c r="G37" s="124" t="s">
-        <v>639</v>
+        <v>592</v>
+      </c>
+      <c r="F37" s="135" t="s">
+        <v>652</v>
+      </c>
+      <c r="G37" s="161" t="s">
+        <v>629</v>
       </c>
       <c r="H37" s="125"/>
       <c r="I37" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K37" s="125"/>
       <c r="L37" s="126" t="s">
@@ -14092,30 +14100,32 @@
     </row>
     <row r="38" spans="1:13" s="134" customFormat="1" ht="104.4" customHeight="1">
       <c r="A38" s="131" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D38" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>602</v>
-      </c>
-      <c r="F38" s="135"/>
+        <v>595</v>
+      </c>
+      <c r="F38" s="101" t="s">
+        <v>595</v>
+      </c>
       <c r="G38" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H38" s="125"/>
       <c r="I38" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J38" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K38" s="125"/>
       <c r="L38" s="126" t="s">
@@ -14123,32 +14133,34 @@
       </c>
       <c r="M38" s="135"/>
     </row>
-    <row r="39" spans="1:13" s="134" customFormat="1" ht="108.6" customHeight="1">
+    <row r="39" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A39" s="131" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D39" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E39" s="101" t="s">
-        <v>605</v>
-      </c>
-      <c r="F39" s="135"/>
+        <v>598</v>
+      </c>
+      <c r="F39" s="101" t="s">
+        <v>598</v>
+      </c>
       <c r="G39" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H39" s="125"/>
       <c r="I39" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J39" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K39" s="125"/>
       <c r="L39" s="126" t="s">
@@ -14158,30 +14170,32 @@
     </row>
     <row r="40" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A40" s="131" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>607</v>
+        <v>422</v>
       </c>
       <c r="D40" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E40" s="101" t="s">
-        <v>608</v>
-      </c>
-      <c r="F40" s="135"/>
+        <v>423</v>
+      </c>
+      <c r="F40" s="101" t="s">
+        <v>423</v>
+      </c>
       <c r="G40" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H40" s="125"/>
       <c r="I40" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J40" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K40" s="125"/>
       <c r="L40" s="126" t="s">
@@ -14191,30 +14205,32 @@
     </row>
     <row r="41" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A41" s="131" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>609</v>
+        <v>441</v>
       </c>
       <c r="C41" s="101" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="D41" s="131" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E41" s="101" t="s">
-        <v>423</v>
-      </c>
-      <c r="F41" s="135"/>
+        <v>443</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>443</v>
+      </c>
       <c r="G41" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H41" s="125"/>
       <c r="I41" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K41" s="125"/>
       <c r="L41" s="126" t="s">
@@ -14222,65 +14238,69 @@
       </c>
       <c r="M41" s="135"/>
     </row>
-    <row r="42" spans="1:13" customFormat="1" ht="103.8" customHeight="1">
+    <row r="42" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A42" s="131" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B42" s="101" t="s">
         <v>424</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D42" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E42" s="101" t="s">
         <v>425</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="101" t="s">
+        <v>425</v>
+      </c>
       <c r="G42" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H42" s="125"/>
       <c r="I42" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J42" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K42" s="125"/>
       <c r="L42" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="146"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A43" s="131" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D43" s="131" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E43" s="101" t="s">
-        <v>448</v>
-      </c>
-      <c r="F43" s="135"/>
+        <v>653</v>
+      </c>
+      <c r="F43" s="101" t="s">
+        <v>653</v>
+      </c>
       <c r="G43" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H43" s="125"/>
       <c r="I43" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J43" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K43" s="125"/>
       <c r="L43" s="126" t="s">
@@ -14288,32 +14308,34 @@
       </c>
       <c r="M43" s="135"/>
     </row>
-    <row r="44" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
+    <row r="44" spans="1:13" s="134" customFormat="1" ht="100.8">
       <c r="A44" s="131" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="C44" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="D44" s="131" t="s">
         <v>429</v>
       </c>
-      <c r="D44" s="131" t="s">
-        <v>433</v>
-      </c>
-      <c r="E44" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="F44" s="135"/>
+      <c r="E44" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="131" t="s">
+        <v>520</v>
+      </c>
       <c r="G44" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H44" s="125"/>
       <c r="I44" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J44" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K44" s="125"/>
       <c r="L44" s="126" t="s">
@@ -14323,30 +14345,32 @@
     </row>
     <row r="45" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A45" s="131" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="D45" s="131" t="s">
-        <v>433</v>
-      </c>
-      <c r="E45" s="101" t="s">
-        <v>432</v>
-      </c>
-      <c r="F45" s="135"/>
+        <v>429</v>
+      </c>
+      <c r="E45" s="131" t="s">
+        <v>523</v>
+      </c>
+      <c r="F45" s="131" t="s">
+        <v>523</v>
+      </c>
       <c r="G45" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H45" s="125"/>
       <c r="I45" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="124" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="K45" s="125"/>
       <c r="L45" s="126" t="s">
@@ -14354,80 +14378,44 @@
       </c>
       <c r="M45" s="135"/>
     </row>
-    <row r="46" spans="1:13" s="134" customFormat="1" ht="100.8">
-      <c r="A46" s="131" t="s">
-        <v>614</v>
-      </c>
-      <c r="B46" s="101" t="s">
-        <v>524</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="D46" s="131" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="124" t="s">
-        <v>639</v>
-      </c>
-      <c r="H46" s="125"/>
-      <c r="I46" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="124" t="s">
-        <v>639</v>
-      </c>
-      <c r="K46" s="125"/>
-      <c r="L46" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="135"/>
-    </row>
-    <row r="47" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A47" s="131" t="s">
-        <v>615</v>
-      </c>
-      <c r="B47" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>528</v>
-      </c>
-      <c r="D47" s="131" t="s">
-        <v>433</v>
-      </c>
-      <c r="E47" s="131" t="s">
-        <v>529</v>
-      </c>
-      <c r="F47" s="135"/>
-      <c r="G47" s="124" t="s">
-        <v>639</v>
-      </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="124" t="s">
-        <v>639</v>
-      </c>
-      <c r="K47" s="125"/>
-      <c r="L47" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="135"/>
-    </row>
+    <row r="46" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
+    <row r="47" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
     <row r="48" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
     <row r="49" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
     <row r="50" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
     <row r="51" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
-    <row r="52" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
-    <row r="53" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
-    <row r="54" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
-    <row r="55" spans="1:13" customFormat="1" ht="13.8"/>
+    <row r="52" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
+    <row r="53" spans="1:13" customFormat="1" ht="13.8"/>
+    <row r="54" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A54" s="132"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+    </row>
+    <row r="55" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A55" s="132"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+    </row>
     <row r="56" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A56" s="132"/>
       <c r="B56" s="132"/>
@@ -14443,36 +14431,8 @@
       <c r="L56" s="132"/>
       <c r="M56" s="132"/>
     </row>
-    <row r="57" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A57" s="132"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-    </row>
-    <row r="58" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A58" s="132"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-    </row>
+    <row r="57" spans="1:13" ht="103.8" customHeight="1"/>
+    <row r="58" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="59" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="60" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="61" spans="1:13" ht="103.8" customHeight="1"/>
@@ -14484,8 +14444,6 @@
     <row r="67" ht="103.8" customHeight="1"/>
     <row r="68" ht="103.8" customHeight="1"/>
     <row r="69" ht="103.8" customHeight="1"/>
-    <row r="70" ht="103.8" customHeight="1"/>
-    <row r="71" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A26:M26"/>
@@ -14505,7 +14463,7 @@
     <mergeCell ref="F7:F9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G25 J11:J25 G27:G47 J27:J47">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G25 J11:J25 J27:J45 G27:G45">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Document/8.1.ProjectTestCaseSprint1.xlsx
+++ b/Document/8.1.ProjectTestCaseSprint1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="661">
   <si>
     <t>TEST CASE SYSTEM SPRINT 1</t>
   </si>
@@ -645,10 +645,6 @@
     <t>1. Chọn trên [Gọi nhân viên] button</t>
   </si>
   <si>
-    <t>1. Quét mã QR
-2. Chọn vào [Xem menu gọi món] Button</t>
-  </si>
-  <si>
     <t>Màn hình [Xem thực đơn] được hiển thị thành công. Ngôn ngữ hiển thị trùng với cài đặt ngôn ngữ của trình duyệt.</t>
   </si>
   <si>
@@ -1355,11 +1351,6 @@
 </t>
   </si>
   <si>
-    <t>1. Quét mã QR
-2. Chọn vào button [Xem menu gọi món]
-3. Nhập giá trị bất kì trên textbox [Bạn đang cần tìm món gì?]</t>
-  </si>
-  <si>
     <t>Kiểm tra hiển thị danh sách các món ăn mà người dùng đã chọn từ nhiều quầy</t>
   </si>
   <si>
@@ -1695,11 +1686,6 @@
 </t>
   </si>
   <si>
-    <t>1. Quét mã QR
-2. Chọn vào button [Xem menu gọi món]
-3. Chọn button [Đơn hàng của tôi] ở giao diện trang chủ</t>
-  </si>
-  <si>
     <t>1. Thêm món "Thịt nướng ba chỉ", "Khoai tây chiên" ở quầy A và "Nước soda chanh dây" ở quầy B vào giỏ hàng
 2, Thoát ra màn hình trang chủ.
 3. Chọn button [Đơn hàng của tôi]</t>
@@ -1880,11 +1866,6 @@
     <t>1. Quan sát nội dung dưới tiêu đề thông báo</t>
   </si>
   <si>
-    <t>1. Quét mã QR tại bàn
-1. Thêm món vào giỏ hàng
-2. Nhấn [Xác nhận gửi yêu cầu gọi món]</t>
-  </si>
-  <si>
     <t>Passed FUNC-NTB01</t>
   </si>
   <si>
@@ -1979,12 +1960,6 @@
   </si>
   <si>
     <t>FUNC-XTD25</t>
-  </si>
-  <si>
-    <t>1. Quét mã QR
-2. Chọn vào button [Xem menu gọi món]
-3. Thêm món ăn vào giỏ hàng 
-4. Chọn vào button [Xem giỏ hàng]</t>
   </si>
   <si>
     <t xml:space="preserve">Màn hình [Xem giỏ hàng] được hiển thị thành công với đầy đủ thông tin món ăn (ảnh, tên, giá, số lượng). Ngôn ngữ hiển thị trùng với cài đặt ngôn ngữ của trình duyệt. 
@@ -2282,6 +2257,46 @@
   </si>
   <si>
     <t>1. Chọn trên [Đánh giá] button</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị màn hình [Đơn hàng của tôi] khi người dùng chọn button [Đã hiểu] tại hộp thoại thông báo "Gửi yêu cầu xác nhận" đặt món</t>
+  </si>
+  <si>
+    <t>1. Quét mã QR
+2. Đăng nhập vào hệ thống
+3. Chọn vào button [Xem menu gọi món]</t>
+  </si>
+  <si>
+    <t>1. Quét mã QR
+2. Đăng nhập vào hệ thống
+3. Chọn vào button [Xem menu gọi món]
+4. Nhập giá trị bất kì trên textbox [Bạn đang cần tìm món gì?]</t>
+  </si>
+  <si>
+    <t>1. Quét mã QR
+2. Đăng nhập vào hệ thống
+3. Chọn vào button [Xem menu gọi món]
+4. Thêm món ăn vào giỏ hàng 
+5. Chọn vào button [Xem giỏ hàng]</t>
+  </si>
+  <si>
+    <t>1. Quét mã QR
+2. Đăng nhập vào hệ thống
+3. Chọn vào button [Xem menu gọi món]
+3. Thêm món vào giỏ hàng
+4. Nhấn [Xác nhận gửi yêu cầu gọi món]</t>
+  </si>
+  <si>
+    <t>1. Quét mã QR
+2. Đăng nhập vào hệ thống
+3. Chọn button [Đơn hàng của tôi] ở giao diện trang chủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển sang giao diện màn hình [Đơn hàng của tôi] được hiển thị thành công. Ngôn ngữ hiển thị trùng với cài đặt ngôn ngữ của trình duyệt. 
+</t>
+  </si>
+  <si>
+    <t>FUNC-XDH09</t>
   </si>
 </sst>
 </file>
@@ -3400,6 +3415,7 @@
     <xf numFmtId="0" fontId="31" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3430,18 +3446,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3457,30 +3497,6 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3502,28 +3518,27 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -4726,7 +4741,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -4739,31 +4754,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" customHeight="1">
       <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="56" t="s">
@@ -4783,10 +4798,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="165">
+      <c r="A5" s="166">
         <v>1</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="169" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="80" t="s">
@@ -4795,38 +4810,38 @@
       <c r="D5" s="150">
         <v>19</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="172" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="166"/>
-      <c r="B6" s="169"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="80" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="151">
         <v>24</v>
       </c>
-      <c r="E6" s="171"/>
+      <c r="E6" s="172"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="166"/>
-      <c r="B7" s="169"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="80" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="151"/>
-      <c r="E7" s="171"/>
+      <c r="E7" s="172"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="167"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="80" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="151"/>
-      <c r="E8" s="171"/>
+      <c r="E8" s="172"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="57">
@@ -4907,7 +4922,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="150">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="152" t="s">
         <v>65</v>
@@ -4916,7 +4931,7 @@
     <row r="14" spans="1:5">
       <c r="D14" s="8">
         <f>SUM(D5:D13)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4936,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -4962,13 +4977,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -4977,13 +4992,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -5064,64 +5079,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -5140,51 +5155,51 @@
       <c r="L9" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="201" t="s">
-        <v>533</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
+      <c r="A10" s="200" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A11" s="120" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -5194,28 +5209,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A12" s="120" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -5225,28 +5240,28 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A13" s="120" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -5256,28 +5271,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A14" s="120" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -5286,48 +5301,48 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="203" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+    </row>
+    <row r="16" spans="1:13" s="109" customFormat="1" ht="117.6">
+      <c r="A16" s="131" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-    </row>
-    <row r="16" spans="1:13" s="109" customFormat="1" ht="67.2">
-      <c r="A16" s="131" t="s">
-        <v>537</v>
-      </c>
       <c r="B16" s="101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>544</v>
+        <v>657</v>
       </c>
       <c r="D16" s="136"/>
       <c r="E16" s="101" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -5337,32 +5352,32 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A17" s="131" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B17" s="101" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="101" t="s">
         <v>542</v>
       </c>
-      <c r="C17" s="101" t="s">
-        <v>543</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>545</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>546</v>
-      </c>
       <c r="F17" s="101" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -5372,32 +5387,32 @@
     </row>
     <row r="18" spans="1:13" ht="67.2">
       <c r="A18" s="131" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B18" s="101" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C18" s="101" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D18" s="131" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="101" t="s">
         <v>545</v>
       </c>
-      <c r="E18" s="101" t="s">
-        <v>549</v>
-      </c>
       <c r="F18" s="101" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -5407,32 +5422,32 @@
     </row>
     <row r="19" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A19" s="131" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D19" s="131" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E19" s="101" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F19" s="101" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -5442,32 +5457,32 @@
     </row>
     <row r="20" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A20" s="131" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D20" s="131" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -5552,13 +5567,6 @@
     <row r="41" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -5567,6 +5575,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G14 J11:J14 G16:G20 J16:J20">
@@ -5582,10 +5597,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -5610,13 +5625,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -5625,13 +5640,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="B2" s="202" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -5668,11 +5683,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="110">
-        <f>COUNTIF(G11:G24,"Untested")</f>
+        <f>COUNTIF(G11:G25,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E4" s="114">
-        <f>COUNTIF(G11:G24,"Blocked")</f>
+        <f>COUNTIF(G11:G25,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="F4" s="110"/>
@@ -5689,11 +5704,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="110">
-        <f>COUNTIF(J11:J24,"Untested")</f>
+        <f>COUNTIF(J11:J25,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E5" s="114">
-        <f>COUNTIF(J11:J24,"Blocked")</f>
+        <f>COUNTIF(J11:J25,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="F5" s="110"/>
@@ -5712,64 +5727,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -5788,51 +5803,51 @@
       <c r="L9" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="201" t="s">
-        <v>447</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
+      <c r="A10" s="200" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A11" s="120" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B11" s="131" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="127" t="s">
         <v>450</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>452</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -5842,28 +5857,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A12" s="120" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -5873,28 +5888,28 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A13" s="120" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -5904,28 +5919,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A14" s="120" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -5935,28 +5950,28 @@
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A15" s="120" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B15" s="131" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="123" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -5966,28 +5981,28 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A16" s="120" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B16" s="131" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
       <c r="E16" s="123" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -5997,28 +6012,28 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A17" s="120" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B17" s="131" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="123" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -6028,7 +6043,7 @@
     </row>
     <row r="18" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A18" s="120" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B18" s="131" t="s">
         <v>74</v>
@@ -6036,20 +6051,20 @@
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
       <c r="E18" s="123" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -6059,28 +6074,28 @@
     </row>
     <row r="19" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A19" s="120" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="123" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -6089,48 +6104,48 @@
       <c r="M19" s="122"/>
     </row>
     <row r="20" spans="1:13" s="109" customFormat="1">
-      <c r="A20" s="202" t="s">
-        <v>448</v>
-      </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-    </row>
-    <row r="21" spans="1:13" s="109" customFormat="1" ht="84">
+      <c r="A20" s="203" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+    </row>
+    <row r="21" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A21" s="131" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="D21" s="146"/>
       <c r="E21" s="101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G21" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K21" s="125"/>
       <c r="L21" s="126" t="s">
@@ -6138,139 +6153,131 @@
       </c>
       <c r="M21" s="122"/>
     </row>
-    <row r="22" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
+    <row r="22" spans="1:13" s="109" customFormat="1" ht="117.6">
       <c r="A22" s="131" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>653</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>657</v>
+      </c>
+      <c r="D22" s="146"/>
+      <c r="E22" s="101" t="s">
+        <v>659</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>659</v>
+      </c>
+      <c r="G22" s="124" t="s">
+        <v>622</v>
+      </c>
+      <c r="H22" s="125"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="122"/>
+    </row>
+    <row r="23" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A23" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="D23" s="131" t="s">
         <v>500</v>
       </c>
-      <c r="B22" s="101" t="s">
-        <v>494</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>493</v>
-      </c>
-      <c r="D22" s="131" t="s">
-        <v>503</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>654</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>654</v>
-      </c>
-      <c r="G22" s="124" t="s">
-        <v>627</v>
-      </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="124" t="s">
-        <v>627</v>
-      </c>
-      <c r="K22" s="125"/>
-      <c r="L22" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="122"/>
-    </row>
-    <row r="23" spans="1:13" ht="134.4">
-      <c r="A23" s="131" t="s">
-        <v>501</v>
-      </c>
-      <c r="B23" s="101" t="s">
-        <v>495</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>503</v>
-      </c>
       <c r="E23" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="F23" s="135" t="s">
-        <v>652</v>
-      </c>
-      <c r="G23" s="161" t="s">
-        <v>629</v>
+        <v>649</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>649</v>
+      </c>
+      <c r="G23" s="124" t="s">
+        <v>622</v>
       </c>
       <c r="H23" s="125"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="125"/>
       <c r="L23" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="136"/>
-    </row>
-    <row r="24" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
+      <c r="M23" s="122"/>
+    </row>
+    <row r="24" spans="1:13" ht="134.4">
       <c r="A24" s="131" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D24" s="131" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>504</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>504</v>
-      </c>
-      <c r="G24" s="124" t="s">
-        <v>627</v>
+        <v>494</v>
+      </c>
+      <c r="F24" s="135" t="s">
+        <v>647</v>
+      </c>
+      <c r="G24" s="161" t="s">
+        <v>624</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K24" s="125"/>
       <c r="L24" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="135"/>
+      <c r="M24" s="136"/>
     </row>
     <row r="25" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="131" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D25" s="131" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F25" s="101" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="125"/>
       <c r="L25" s="126" t="s">
@@ -6280,32 +6287,32 @@
     </row>
     <row r="26" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="131" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D26" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="E26" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="E26" s="101" t="s">
-        <v>510</v>
-      </c>
-      <c r="F26" s="135" t="s">
-        <v>652</v>
-      </c>
-      <c r="G26" s="161" t="s">
-        <v>629</v>
+      <c r="F26" s="101" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>622</v>
       </c>
       <c r="H26" s="125"/>
       <c r="I26" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K26" s="125"/>
       <c r="L26" s="126" t="s">
@@ -6313,69 +6320,69 @@
       </c>
       <c r="M26" s="135"/>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
+    <row r="27" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="131" t="s">
-        <v>517</v>
-      </c>
-      <c r="B27" s="131" t="s">
-        <v>511</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>506</v>
       </c>
       <c r="D27" s="131" t="s">
-        <v>503</v>
-      </c>
-      <c r="E27" s="131" t="s">
-        <v>513</v>
-      </c>
-      <c r="F27" s="203" t="s">
-        <v>655</v>
+        <v>500</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>507</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>647</v>
       </c>
       <c r="G27" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H27" s="125"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K27" s="125"/>
       <c r="L27" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="146"/>
+      <c r="M27" s="135"/>
     </row>
     <row r="28" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
       <c r="A28" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>521</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>509</v>
       </c>
       <c r="D28" s="131" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>656</v>
-      </c>
-      <c r="G28" s="124" t="s">
-        <v>627</v>
+        <v>510</v>
+      </c>
+      <c r="F28" s="162" t="s">
+        <v>650</v>
+      </c>
+      <c r="G28" s="161" t="s">
+        <v>624</v>
       </c>
       <c r="H28" s="125"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="126" t="s">
@@ -6383,14 +6390,42 @@
       </c>
       <c r="M28" s="146"/>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
-    <row r="30" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-    </row>
+    <row r="29" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
+      <c r="A29" s="131" t="s">
+        <v>660</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="F29" s="131" t="s">
+        <v>651</v>
+      </c>
+      <c r="G29" s="124" t="s">
+        <v>622</v>
+      </c>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="124" t="s">
+        <v>622</v>
+      </c>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="146"/>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" ht="113.4" customHeight="1"/>
     <row r="31" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
       <c r="A31" s="132"/>
       <c r="B31" s="132"/>
@@ -6398,23 +6433,15 @@
       <c r="D31" s="132"/>
       <c r="E31" s="132"/>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
-    <row r="33" spans="1:13" customFormat="1" ht="13.8"/>
-    <row r="34" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-    </row>
+    <row r="32" spans="1:13" customFormat="1" ht="113.4" customHeight="1">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
+    <row r="34" spans="1:13" customFormat="1" ht="13.8"/>
     <row r="35" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A35" s="132"/>
       <c r="B35" s="132"/>
@@ -6445,7 +6472,21 @@
       <c r="L36" s="132"/>
       <c r="M36" s="132"/>
     </row>
-    <row r="37" spans="1:13" ht="103.8" customHeight="1"/>
+    <row r="37" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+    </row>
     <row r="38" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="39" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="40" spans="1:13" ht="103.8" customHeight="1"/>
@@ -6458,8 +6499,16 @@
     <row r="47" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="48" spans="1:13" ht="103.8" customHeight="1"/>
     <row r="49" ht="103.8" customHeight="1"/>
+    <row r="50" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -6468,16 +6517,9 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 J21:J28 G21:G28">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 J21:J29 G21:G29">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6508,24 +6550,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="24.6">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.2">
       <c r="A2" s="2"/>
@@ -6549,22 +6591,22 @@
       <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="59"/>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="181" t="s">
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="183"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="177"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60"/>
       <c r="N3" s="60"/>
@@ -6573,20 +6615,20 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A4" s="58"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="184" t="s">
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="186"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="180"/>
       <c r="L4" s="61"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
@@ -6595,20 +6637,20 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A5" s="58"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="61"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="178">
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="187">
         <v>44114</v>
       </c>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="189"/>
       <c r="L5" s="61"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
@@ -6619,18 +6661,18 @@
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -6640,52 +6682,52 @@
     <row r="7" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177" t="s">
+      <c r="D7" s="186"/>
+      <c r="E7" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177" t="s">
+      <c r="F7" s="186"/>
+      <c r="G7" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177" t="s">
+      <c r="H7" s="186"/>
+      <c r="I7" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177" t="s">
+      <c r="J7" s="186"/>
+      <c r="K7" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="177"/>
-      <c r="M7" s="172" t="s">
+      <c r="L7" s="186"/>
+      <c r="M7" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="172"/>
-      <c r="O7" s="173" t="s">
+      <c r="N7" s="183"/>
+      <c r="O7" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="173"/>
+      <c r="P7" s="184"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A8" s="67"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="69" t="s">
@@ -7406,13 +7448,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -7424,6 +7459,13 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -7434,8 +7476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A15" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -7460,13 +7502,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -7475,13 +7517,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -7560,64 +7602,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="194" t="s">
+      <c r="D7" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -7636,28 +7678,28 @@
       <c r="L9" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="193" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
+      <c r="A10" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>69</v>
@@ -7671,14 +7713,14 @@
         <v>152</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="55" t="s">
@@ -7688,7 +7730,7 @@
     </row>
     <row r="12" spans="1:13" s="31" customFormat="1">
       <c r="A12" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>77</v>
@@ -7702,14 +7744,14 @@
         <v>153</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="55" t="s">
@@ -7719,7 +7761,7 @@
     </row>
     <row r="13" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A13" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>78</v>
@@ -7733,14 +7775,14 @@
         <v>153</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="55" t="s">
@@ -7750,7 +7792,7 @@
     </row>
     <row r="14" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A14" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>70</v>
@@ -7764,14 +7806,14 @@
         <v>154</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="55" t="s">
@@ -7781,7 +7823,7 @@
     </row>
     <row r="15" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A15" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>71</v>
@@ -7795,14 +7837,14 @@
         <v>155</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="55" t="s">
@@ -7812,7 +7854,7 @@
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A16" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>72</v>
@@ -7826,14 +7868,14 @@
         <v>156</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="55" t="s">
@@ -7843,7 +7885,7 @@
     </row>
     <row r="17" spans="1:13" ht="33.6">
       <c r="A17" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>73</v>
@@ -7857,14 +7899,14 @@
         <v>154</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="55" t="s">
@@ -7874,7 +7916,7 @@
     </row>
     <row r="18" spans="1:13" ht="33.6">
       <c r="A18" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="95" t="s">
         <v>74</v>
@@ -7888,14 +7930,14 @@
         <v>157</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="93"/>
       <c r="L18" s="55" t="s">
@@ -7905,7 +7947,7 @@
     </row>
     <row r="19" spans="1:13" ht="33.6">
       <c r="A19" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="95" t="s">
         <v>75</v>
@@ -7919,14 +7961,14 @@
         <v>156</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="93"/>
       <c r="I19" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="93"/>
       <c r="L19" s="55" t="s">
@@ -7936,7 +7978,7 @@
     </row>
     <row r="20" spans="1:13" ht="33.6">
       <c r="A20" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>76</v>
@@ -7950,14 +7992,14 @@
         <v>156</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="55" t="s">
@@ -7966,48 +8008,48 @@
       <c r="M20" s="93"/>
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1">
-      <c r="A21" s="191" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
+      <c r="A21" s="192" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A22" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="139" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="139" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D22" s="140"/>
       <c r="E22" s="139" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H22" s="84"/>
       <c r="I22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K22" s="84"/>
       <c r="L22" s="55" t="s">
@@ -8017,7 +8059,7 @@
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A23" s="96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="139" t="s">
         <v>81</v>
@@ -8026,23 +8068,23 @@
         <v>170</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="139" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="139" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H23" s="84"/>
       <c r="I23" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="84"/>
       <c r="L23" s="55" t="s">
@@ -8052,7 +8094,7 @@
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A24" s="96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="139" t="s">
         <v>83</v>
@@ -8061,23 +8103,23 @@
         <v>171</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="139" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G24" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="55" t="s">
@@ -8087,7 +8129,7 @@
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="139" t="s">
         <v>84</v>
@@ -8096,7 +8138,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="139" t="s">
         <v>110</v>
@@ -8105,14 +8147,14 @@
         <v>110</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H25" s="84"/>
       <c r="I25" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="84"/>
       <c r="L25" s="55" t="s">
@@ -8122,7 +8164,7 @@
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="139" t="s">
         <v>87</v>
@@ -8131,23 +8173,23 @@
         <v>172</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="139" t="s">
         <v>88</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G26" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H26" s="84"/>
       <c r="I26" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K26" s="84"/>
       <c r="L26" s="55" t="s">
@@ -8157,16 +8199,16 @@
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="139" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="139" t="s">
         <v>90</v>
@@ -8175,14 +8217,14 @@
         <v>90</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H27" s="84"/>
       <c r="I27" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K27" s="84"/>
       <c r="L27" s="55" t="s">
@@ -8192,7 +8234,7 @@
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="139" t="s">
         <v>91</v>
@@ -8201,23 +8243,23 @@
         <v>173</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28" s="139" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G28" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K28" s="84"/>
       <c r="L28" s="55" t="s">
@@ -8227,7 +8269,7 @@
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="139" t="s">
         <v>93</v>
@@ -8236,23 +8278,23 @@
         <v>174</v>
       </c>
       <c r="D29" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="139" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G29" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H29" s="84"/>
       <c r="I29" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="55" t="s">
@@ -8262,32 +8304,32 @@
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="139" t="s">
         <v>95</v>
       </c>
       <c r="C30" s="141" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D30" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="139" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G30" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H30" s="84"/>
       <c r="I30" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="154" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K30" s="84"/>
       <c r="L30" s="55" t="s">
@@ -8368,13 +8410,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -8383,13 +8425,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -8468,64 +8510,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="194" t="s">
+      <c r="D7" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -8544,28 +8586,28 @@
       <c r="L9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="195" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
+      <c r="A10" s="196" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A11" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="102" t="s">
         <v>99</v>
@@ -8579,14 +8621,14 @@
         <v>158</v>
       </c>
       <c r="G11" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="156" t="s">
@@ -8596,7 +8638,7 @@
     </row>
     <row r="12" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A12" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>100</v>
@@ -8610,14 +8652,14 @@
         <v>159</v>
       </c>
       <c r="G12" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="156" t="s">
@@ -8627,7 +8669,7 @@
     </row>
     <row r="13" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A13" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="102" t="s">
         <v>101</v>
@@ -8641,14 +8683,14 @@
         <v>159</v>
       </c>
       <c r="G13" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="156" t="s">
@@ -8658,7 +8700,7 @@
     </row>
     <row r="14" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A14" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="102" t="s">
         <v>102</v>
@@ -8672,14 +8714,14 @@
         <v>159</v>
       </c>
       <c r="G14" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="82"/>
       <c r="L14" s="156" t="s">
@@ -8689,7 +8731,7 @@
     </row>
     <row r="15" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A15" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="102" t="s">
         <v>103</v>
@@ -8703,14 +8745,14 @@
         <v>159</v>
       </c>
       <c r="G15" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="156" t="s">
@@ -8720,7 +8762,7 @@
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A16" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="102" t="s">
         <v>104</v>
@@ -8734,14 +8776,14 @@
         <v>159</v>
       </c>
       <c r="G16" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="156" t="s">
@@ -8751,7 +8793,7 @@
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A17" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="102" t="s">
         <v>105</v>
@@ -8765,14 +8807,14 @@
         <v>159</v>
       </c>
       <c r="G17" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="156" t="s">
@@ -8782,7 +8824,7 @@
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A18" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="102" t="s">
         <v>106</v>
@@ -8796,14 +8838,14 @@
         <v>159</v>
       </c>
       <c r="G18" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="156" t="s">
@@ -8813,7 +8855,7 @@
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A19" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="102" t="s">
         <v>107</v>
@@ -8827,14 +8869,14 @@
         <v>159</v>
       </c>
       <c r="G19" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="156" t="s">
@@ -8844,7 +8886,7 @@
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A20" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="102" t="s">
         <v>108</v>
@@ -8858,14 +8900,14 @@
         <v>159</v>
       </c>
       <c r="G20" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="82"/>
       <c r="I20" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="156" t="s">
@@ -8875,10 +8917,10 @@
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A21" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -8889,14 +8931,14 @@
         <v>159</v>
       </c>
       <c r="G21" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H21" s="82"/>
       <c r="I21" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K21" s="82"/>
       <c r="L21" s="156" t="s">
@@ -8905,25 +8947,25 @@
       <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1">
-      <c r="A22" s="191" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
+      <c r="A22" s="192" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="131.4" customHeight="1">
       <c r="A23" s="157" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B23" s="139" t="s">
         <v>80</v>
@@ -8939,14 +8981,14 @@
         <v>80</v>
       </c>
       <c r="G23" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H23" s="84"/>
       <c r="I23" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="82"/>
       <c r="L23" s="156" t="s">
@@ -8956,32 +8998,32 @@
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="131.4" customHeight="1">
       <c r="A24" s="157" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="105" t="s">
-        <v>357</v>
-      </c>
       <c r="D24" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E24" s="105" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="158" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G24" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H24" s="84"/>
       <c r="I24" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K24" s="82"/>
       <c r="L24" s="156" t="s">
@@ -8991,32 +9033,32 @@
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E25" s="105" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G25" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H25" s="84"/>
       <c r="I25" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="156" t="s">
@@ -9026,16 +9068,16 @@
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>112</v>
@@ -9044,14 +9086,14 @@
         <v>112</v>
       </c>
       <c r="G26" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H26" s="84"/>
       <c r="I26" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="156" t="s">
@@ -9061,16 +9103,16 @@
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="98" t="s">
         <v>114</v>
@@ -9079,14 +9121,14 @@
         <v>114</v>
       </c>
       <c r="G27" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H27" s="84"/>
       <c r="I27" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="156" t="s">
@@ -9096,16 +9138,16 @@
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="98" t="s">
         <v>116</v>
@@ -9114,14 +9156,14 @@
         <v>116</v>
       </c>
       <c r="G28" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H28" s="84"/>
       <c r="I28" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="156" t="s">
@@ -9131,16 +9173,16 @@
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="157" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="98" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D29" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" s="98" t="s">
         <v>118</v>
@@ -9149,14 +9191,14 @@
         <v>118</v>
       </c>
       <c r="G29" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H29" s="84"/>
       <c r="I29" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="156" t="s">
@@ -9166,16 +9208,16 @@
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="157" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D30" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="98" t="s">
         <v>120</v>
@@ -9184,14 +9226,14 @@
         <v>120</v>
       </c>
       <c r="G30" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H30" s="84"/>
       <c r="I30" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K30" s="82"/>
       <c r="L30" s="156" t="s">
@@ -9201,16 +9243,16 @@
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="98" t="s">
         <v>121</v>
@@ -9219,14 +9261,14 @@
         <v>121</v>
       </c>
       <c r="G31" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H31" s="84"/>
       <c r="I31" s="156" t="s">
         <v>65</v>
       </c>
       <c r="J31" s="155" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K31" s="82"/>
       <c r="L31" s="156" t="s">
@@ -9245,6 +9287,13 @@
     <row r="40" customFormat="1" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -9253,13 +9302,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J11:J21 G23:G31 G11:G21 J23:J31">
@@ -9303,13 +9345,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -9318,13 +9360,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -9403,64 +9445,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="194" t="s">
+      <c r="D7" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -9479,28 +9521,28 @@
       <c r="L9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="193" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
+      <c r="A10" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>122</v>
@@ -9514,14 +9556,14 @@
         <v>160</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="82"/>
       <c r="L11" s="55" t="s">
@@ -9531,7 +9573,7 @@
     </row>
     <row r="12" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A12" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>99</v>
@@ -9545,14 +9587,14 @@
         <v>158</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="82"/>
       <c r="L12" s="55" t="s">
@@ -9562,7 +9604,7 @@
     </row>
     <row r="13" spans="1:13" s="31" customFormat="1">
       <c r="A13" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>77</v>
@@ -9576,14 +9618,14 @@
         <v>123</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="82"/>
       <c r="L13" s="55" t="s">
@@ -9593,7 +9635,7 @@
     </row>
     <row r="14" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A14" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>70</v>
@@ -9607,14 +9649,14 @@
         <v>155</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="82"/>
       <c r="L14" s="55" t="s">
@@ -9624,7 +9666,7 @@
     </row>
     <row r="15" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A15" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>125</v>
@@ -9638,14 +9680,14 @@
         <v>124</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="82"/>
       <c r="L15" s="55" t="s">
@@ -9655,7 +9697,7 @@
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A16" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>126</v>
@@ -9669,14 +9711,14 @@
         <v>161</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="55" t="s">
@@ -9686,7 +9728,7 @@
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A17" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>127</v>
@@ -9700,14 +9742,14 @@
         <v>130</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="82"/>
       <c r="L17" s="55" t="s">
@@ -9717,7 +9759,7 @@
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A18" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>128</v>
@@ -9731,14 +9773,14 @@
         <v>162</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="82"/>
       <c r="L18" s="55" t="s">
@@ -9748,7 +9790,7 @@
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A19" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>129</v>
@@ -9762,14 +9804,14 @@
         <v>163</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="82"/>
       <c r="L19" s="55" t="s">
@@ -9779,7 +9821,7 @@
     </row>
     <row r="20" spans="1:13" ht="50.4">
       <c r="A20" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>131</v>
@@ -9793,14 +9835,14 @@
         <v>134</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="55" t="s">
@@ -9810,7 +9852,7 @@
     </row>
     <row r="21" spans="1:13" ht="50.4">
       <c r="A21" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>132</v>
@@ -9824,14 +9866,14 @@
         <v>164</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H21" s="93"/>
       <c r="I21" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K21" s="93"/>
       <c r="L21" s="55" t="s">
@@ -9841,7 +9883,7 @@
     </row>
     <row r="22" spans="1:13" ht="50.4">
       <c r="A22" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>133</v>
@@ -9855,14 +9897,14 @@
         <v>164</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H22" s="93"/>
       <c r="I22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K22" s="93"/>
       <c r="L22" s="55" t="s">
@@ -9872,7 +9914,7 @@
     </row>
     <row r="23" spans="1:13" ht="50.4">
       <c r="A23" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B23" s="102" t="s">
         <v>147</v>
@@ -9886,14 +9928,14 @@
         <v>164</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H23" s="93"/>
       <c r="I23" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="93"/>
       <c r="L23" s="55" t="s">
@@ -9902,25 +9944,25 @@
       <c r="M23" s="93"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1">
-      <c r="A24" s="191" t="s">
-        <v>235</v>
-      </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
+      <c r="A24" s="192" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="193"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="192"/>
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="108">
       <c r="A25" s="96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="104" t="s">
         <v>79</v>
@@ -9934,14 +9976,14 @@
       </c>
       <c r="F25" s="97"/>
       <c r="G25" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H25" s="82"/>
       <c r="I25" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K25" s="82"/>
       <c r="L25" s="55" t="s">
@@ -9951,30 +9993,30 @@
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E26" s="105" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="97"/>
       <c r="G26" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H26" s="82"/>
       <c r="I26" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K26" s="82"/>
       <c r="L26" s="55" t="s">
@@ -9984,7 +10026,7 @@
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>137</v>
@@ -9993,21 +10035,21 @@
         <v>138</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" s="98" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="97"/>
       <c r="G27" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H27" s="82"/>
       <c r="I27" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K27" s="82"/>
       <c r="L27" s="55" t="s">
@@ -10017,30 +10059,30 @@
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D28" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E28" s="98" t="s">
         <v>141</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H28" s="82"/>
       <c r="I28" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K28" s="82"/>
       <c r="L28" s="55" t="s">
@@ -10050,7 +10092,7 @@
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="98" t="s">
         <v>142</v>
@@ -10059,21 +10101,21 @@
         <v>143</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29" s="98" t="s">
         <v>141</v>
       </c>
       <c r="F29" s="97"/>
       <c r="G29" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H29" s="82"/>
       <c r="I29" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="55" t="s">
@@ -10083,7 +10125,7 @@
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>144</v>
@@ -10092,21 +10134,21 @@
         <v>145</v>
       </c>
       <c r="D30" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E30" s="98" t="s">
         <v>146</v>
       </c>
       <c r="F30" s="97"/>
       <c r="G30" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H30" s="82"/>
       <c r="I30" s="55" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="160" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K30" s="82"/>
       <c r="L30" s="55" t="s">
@@ -10174,6 +10216,13 @@
     <row r="46" spans="1:13" customFormat="1" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -10182,13 +10231,6 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G25:G30 J11:J23 G11:G23 J25:J30">
@@ -10232,13 +10274,13 @@
       <c r="A1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="J1" s="29"/>
@@ -10247,13 +10289,13 @@
       <c r="A2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="J2" s="29"/>
@@ -10332,64 +10374,64 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="194" t="s">
+      <c r="D7" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194" t="s">
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194" t="s">
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="48" t="s">
         <v>55</v>
       </c>
@@ -10408,31 +10450,31 @@
       <c r="L9" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="31" customFormat="1">
-      <c r="A10" s="193" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
+      <c r="A10" s="194" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
     </row>
     <row r="11" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A11" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
@@ -10450,7 +10492,7 @@
     </row>
     <row r="12" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A12" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>99</v>
@@ -10471,7 +10513,7 @@
     </row>
     <row r="13" spans="1:13" s="31" customFormat="1">
       <c r="A13" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>77</v>
@@ -10492,7 +10534,7 @@
     </row>
     <row r="14" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A14" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>70</v>
@@ -10513,7 +10555,7 @@
     </row>
     <row r="15" spans="1:13" s="31" customFormat="1" ht="33.6">
       <c r="A15" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>125</v>
@@ -10534,7 +10576,7 @@
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A16" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>126</v>
@@ -10555,7 +10597,7 @@
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A17" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>127</v>
@@ -10576,7 +10618,7 @@
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A18" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>128</v>
@@ -10597,7 +10639,7 @@
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" ht="50.4">
       <c r="A19" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>129</v>
@@ -10618,7 +10660,7 @@
     </row>
     <row r="20" spans="1:13" ht="50.4">
       <c r="A20" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="95" t="s">
         <v>131</v>
@@ -10639,7 +10681,7 @@
     </row>
     <row r="21" spans="1:13" ht="50.4">
       <c r="A21" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" s="95" t="s">
         <v>148</v>
@@ -10660,7 +10702,7 @@
     </row>
     <row r="22" spans="1:13" ht="50.4">
       <c r="A22" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>147</v>
@@ -10680,25 +10722,25 @@
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1">
-      <c r="A23" s="191" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
+      <c r="A23" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="108">
       <c r="A24" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" s="104" t="s">
         <v>79</v>
@@ -10721,16 +10763,16 @@
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" s="98" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E25" s="105" t="s">
         <v>136</v>
@@ -10808,13 +10850,6 @@
     <row r="45" customFormat="1" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -10823,6 +10858,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G24:G25 G11:G19 J11:J19 J24:J25">
@@ -10840,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -10866,13 +10908,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -10881,13 +10923,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -10967,64 +11009,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -11043,28 +11085,28 @@
       <c r="L9" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="201" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
+      <c r="A10" s="200" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="134.4">
       <c r="A11" s="120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="121" t="s">
         <v>151</v>
@@ -11072,20 +11114,20 @@
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -11095,7 +11137,7 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A12" s="120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>165</v>
@@ -11109,14 +11151,14 @@
         <v>166</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -11126,7 +11168,7 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="327.60000000000002" customHeight="1">
       <c r="A13" s="120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="127" t="s">
         <v>167</v>
@@ -11140,14 +11182,14 @@
         <v>168</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -11157,28 +11199,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A14" s="120" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B14" s="145" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
       <c r="E14" s="153" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F14" s="153" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -11188,28 +11230,28 @@
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A15" s="120" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B15" s="145" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
       <c r="E15" s="153" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -11219,28 +11261,28 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A16" s="120" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B16" s="145" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C16" s="145"/>
       <c r="D16" s="145"/>
       <c r="E16" s="153" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -11250,28 +11292,28 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A17" s="120" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="145"/>
       <c r="E17" s="153" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -11281,28 +11323,28 @@
     </row>
     <row r="18" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A18" s="120" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
       <c r="E18" s="153" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F18" s="153" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -11312,28 +11354,28 @@
     </row>
     <row r="19" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A19" s="120" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C19" s="145"/>
       <c r="D19" s="145"/>
       <c r="E19" s="153" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F19" s="153" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -11343,28 +11385,28 @@
     </row>
     <row r="20" spans="1:13" s="109" customFormat="1" ht="134.4">
       <c r="A20" s="120" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C20" s="145"/>
       <c r="D20" s="145"/>
       <c r="E20" s="153" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -11373,48 +11415,48 @@
       <c r="M20" s="122"/>
     </row>
     <row r="21" spans="1:13" s="109" customFormat="1">
-      <c r="A21" s="199" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-    </row>
-    <row r="22" spans="1:13" s="109" customFormat="1" ht="50.4">
+      <c r="A21" s="197" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+    </row>
+    <row r="22" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A22" s="128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="133" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>175</v>
+        <v>654</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H22" s="130"/>
       <c r="I22" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K22" s="130"/>
       <c r="L22" s="126" t="s">
@@ -11424,32 +11466,32 @@
     </row>
     <row r="23" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A23" s="128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="D23" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E23" s="101" t="s">
-        <v>179</v>
-      </c>
       <c r="F23" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H23" s="130"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="130"/>
       <c r="L23" s="126" t="s">
@@ -11459,32 +11501,32 @@
     </row>
     <row r="24" spans="1:13" ht="103.8" customHeight="1">
       <c r="A24" s="128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="135" t="s">
-        <v>181</v>
-      </c>
       <c r="D24" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H24" s="136"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K24" s="136"/>
       <c r="L24" s="126" t="s">
@@ -11494,32 +11536,32 @@
     </row>
     <row r="25" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A25" s="128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="135" t="s">
-        <v>183</v>
-      </c>
       <c r="D25" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" s="135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H25" s="135"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="135"/>
       <c r="L25" s="126" t="s">
@@ -11529,32 +11571,32 @@
     </row>
     <row r="26" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A26" s="128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="D26" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>188</v>
-      </c>
       <c r="F26" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H26" s="135"/>
       <c r="I26" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K26" s="135"/>
       <c r="L26" s="126" t="s">
@@ -11564,32 +11606,32 @@
     </row>
     <row r="27" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A27" s="128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" s="101" t="s">
-        <v>191</v>
-      </c>
       <c r="F27" s="135" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G27" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K27" s="135"/>
       <c r="L27" s="126" t="s">
@@ -11599,32 +11641,32 @@
     </row>
     <row r="28" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E28" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H28" s="135"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K28" s="135"/>
       <c r="L28" s="126" t="s">
@@ -11634,32 +11676,32 @@
     </row>
     <row r="29" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A29" s="128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>194</v>
-      </c>
       <c r="F29" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H29" s="135"/>
       <c r="I29" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K29" s="135"/>
       <c r="L29" s="126" t="s">
@@ -11669,32 +11711,32 @@
     </row>
     <row r="30" spans="1:13" ht="74.400000000000006" customHeight="1">
       <c r="A30" s="128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E30" s="138" t="s">
-        <v>191</v>
-      </c>
       <c r="F30" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G30" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H30" s="135"/>
       <c r="I30" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K30" s="135"/>
       <c r="L30" s="126" t="s">
@@ -11704,32 +11746,32 @@
     </row>
     <row r="31" spans="1:13" ht="84">
       <c r="A31" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="135" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="135" t="s">
-        <v>199</v>
-      </c>
       <c r="D31" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G31" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H31" s="135"/>
       <c r="I31" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J31" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K31" s="135"/>
       <c r="L31" s="126" t="s">
@@ -11739,32 +11781,32 @@
     </row>
     <row r="32" spans="1:13" ht="113.4" customHeight="1">
       <c r="A32" s="128" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="135" t="s">
-        <v>201</v>
-      </c>
       <c r="D32" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G32" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H32" s="135"/>
       <c r="I32" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K32" s="135"/>
       <c r="L32" s="126" t="s">
@@ -11774,32 +11816,32 @@
     </row>
     <row r="33" spans="1:13" ht="113.4" customHeight="1">
       <c r="A33" s="128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="135" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="135" t="s">
-        <v>203</v>
-      </c>
       <c r="D33" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F33" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G33" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H33" s="135"/>
       <c r="I33" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J33" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K33" s="135"/>
       <c r="L33" s="126" t="s">
@@ -11809,32 +11851,32 @@
     </row>
     <row r="34" spans="1:13" ht="113.4" customHeight="1">
       <c r="A34" s="128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="135" t="s">
-        <v>205</v>
-      </c>
       <c r="D34" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G34" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H34" s="135"/>
       <c r="I34" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K34" s="135"/>
       <c r="L34" s="126" t="s">
@@ -11844,32 +11886,32 @@
     </row>
     <row r="35" spans="1:13" ht="113.4" customHeight="1">
       <c r="A35" s="128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D35" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F35" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G35" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H35" s="135"/>
       <c r="I35" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K35" s="135"/>
       <c r="L35" s="126" t="s">
@@ -11879,32 +11921,32 @@
     </row>
     <row r="36" spans="1:13" ht="134.4">
       <c r="A36" s="128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="135" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="135" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="135" t="s">
-        <v>349</v>
-      </c>
       <c r="D36" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G36" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K36" s="135"/>
       <c r="L36" s="126" t="s">
@@ -11914,32 +11956,32 @@
     </row>
     <row r="37" spans="1:13" ht="117.6">
       <c r="A37" s="128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="135" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G37" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H37" s="135"/>
       <c r="I37" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K37" s="135"/>
       <c r="L37" s="126" t="s">
@@ -11949,32 +11991,32 @@
     </row>
     <row r="38" spans="1:13" ht="117.6">
       <c r="A38" s="128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" s="135" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="135" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" s="138" t="s">
         <v>346</v>
       </c>
-      <c r="C38" s="135" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E38" s="138" t="s">
-        <v>347</v>
-      </c>
       <c r="F38" s="135" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G38" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H38" s="135"/>
       <c r="I38" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J38" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K38" s="135"/>
       <c r="L38" s="126" t="s">
@@ -11984,32 +12026,32 @@
     </row>
     <row r="39" spans="1:13" ht="113.4" customHeight="1">
       <c r="A39" s="128" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="B39" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="135" t="s">
+      <c r="E39" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E39" s="138" t="s">
-        <v>209</v>
-      </c>
       <c r="F39" s="138" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G39" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H39" s="135"/>
       <c r="I39" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J39" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K39" s="135"/>
       <c r="L39" s="126" t="s">
@@ -12019,32 +12061,32 @@
     </row>
     <row r="40" spans="1:13" ht="113.4" customHeight="1">
       <c r="A40" s="128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B40" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="135" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" s="135" t="s">
         <v>321</v>
       </c>
-      <c r="C40" s="135" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="E40" s="135" t="s">
-        <v>322</v>
-      </c>
       <c r="F40" s="135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G40" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H40" s="135"/>
       <c r="I40" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J40" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K40" s="135"/>
       <c r="L40" s="126" t="s">
@@ -12054,32 +12096,32 @@
     </row>
     <row r="41" spans="1:13" ht="113.4" customHeight="1">
       <c r="A41" s="128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C41" s="135" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D41" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F41" s="138" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G41" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H41" s="135"/>
       <c r="I41" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K41" s="135"/>
       <c r="L41" s="126" t="s">
@@ -12089,32 +12131,32 @@
     </row>
     <row r="42" spans="1:13" ht="113.4" customHeight="1">
       <c r="A42" s="128" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D42" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F42" s="138" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G42" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H42" s="135"/>
       <c r="I42" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J42" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K42" s="135"/>
       <c r="L42" s="126" t="s">
@@ -12124,32 +12166,32 @@
     </row>
     <row r="43" spans="1:13" ht="113.4" customHeight="1">
       <c r="A43" s="128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" s="135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C43" s="135" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D43" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F43" s="138" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G43" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H43" s="135"/>
       <c r="I43" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J43" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K43" s="135"/>
       <c r="L43" s="126" t="s">
@@ -12159,32 +12201,32 @@
     </row>
     <row r="44" spans="1:13" ht="113.4" customHeight="1">
       <c r="A44" s="128" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B44" s="135" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C44" s="135" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D44" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F44" s="138" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G44" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H44" s="135"/>
       <c r="I44" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J44" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K44" s="135"/>
       <c r="L44" s="126" t="s">
@@ -12194,32 +12236,32 @@
     </row>
     <row r="45" spans="1:13" ht="117.6">
       <c r="A45" s="128" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D45" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F45" s="138" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G45" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H45" s="135"/>
       <c r="I45" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K45" s="135"/>
       <c r="L45" s="126" t="s">
@@ -12229,32 +12271,32 @@
     </row>
     <row r="46" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A46" s="128" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F46" s="138" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G46" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H46" s="135"/>
       <c r="I46" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J46" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K46" s="135"/>
       <c r="L46" s="126" t="s">
@@ -12332,13 +12374,6 @@
     <row r="63" spans="1:13" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -12347,6 +12382,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J11:J20 J22:J46 G11:G20 G22:G46">
@@ -12365,7 +12407,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="B14" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -12390,13 +12432,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -12405,13 +12447,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -12491,64 +12533,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -12567,28 +12609,28 @@
       <c r="L9" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="201" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
+      <c r="A10" s="200" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="161.4" customHeight="1">
       <c r="A11" s="120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="121" t="s">
         <v>151</v>
@@ -12596,20 +12638,20 @@
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -12619,28 +12661,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A12" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -12650,7 +12692,7 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="341.4" customHeight="1">
       <c r="A13" s="120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="127" t="s">
         <v>167</v>
@@ -12664,14 +12706,14 @@
         <v>168</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -12680,48 +12722,48 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1">
-      <c r="A14" s="199" t="s">
-        <v>325</v>
-      </c>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-    </row>
-    <row r="15" spans="1:13" s="109" customFormat="1" ht="84">
+      <c r="A14" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="197"/>
+    </row>
+    <row r="15" spans="1:13" s="109" customFormat="1" ht="100.8">
       <c r="A15" s="131" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>402</v>
+        <v>655</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -12731,32 +12773,32 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A16" s="131" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="131" t="s">
-        <v>335</v>
-      </c>
       <c r="E16" s="101" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G16" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -12766,32 +12808,32 @@
     </row>
     <row r="17" spans="1:13" ht="103.8" customHeight="1">
       <c r="A17" s="131" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B17" s="133" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="D17" s="131" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>339</v>
-      </c>
       <c r="F17" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -12801,32 +12843,32 @@
     </row>
     <row r="18" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A18" s="131" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B18" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="C18" s="101" t="s">
-        <v>341</v>
-      </c>
       <c r="D18" s="131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F18" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -12836,32 +12878,32 @@
     </row>
     <row r="19" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A19" s="131" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" s="133" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="101" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>343</v>
-      </c>
       <c r="D19" s="131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F19" s="135" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G19" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -12871,32 +12913,32 @@
     </row>
     <row r="20" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A20" s="131" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D20" s="131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -12977,13 +13019,6 @@
     <row r="49" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -12992,6 +13027,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J11:J13 J15:J20 G11:G13 G15:G20">
@@ -13009,8 +13051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8"/>
@@ -13035,13 +13077,13 @@
       <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
       <c r="J1" s="107"/>
@@ -13050,13 +13092,13 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="107"/>
       <c r="H2" s="108"/>
       <c r="J2" s="107"/>
@@ -13138,64 +13180,64 @@
       <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="109" customFormat="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="109" customFormat="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" s="109" customFormat="1">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="118" t="s">
         <v>55</v>
       </c>
@@ -13214,49 +13256,49 @@
       <c r="L9" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="198"/>
+      <c r="M9" s="199"/>
     </row>
     <row r="10" spans="1:13" s="109" customFormat="1">
-      <c r="A10" s="201" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
+      <c r="A10" s="200" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="109" customFormat="1" ht="100.8">
       <c r="A11" s="120" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="131" t="s">
         <v>370</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>371</v>
       </c>
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
       <c r="E11" s="123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H11" s="125"/>
       <c r="I11" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="126" t="s">
@@ -13266,28 +13308,28 @@
     </row>
     <row r="12" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A12" s="120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
       <c r="E12" s="123" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H12" s="125"/>
       <c r="I12" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="126" t="s">
@@ -13297,28 +13339,28 @@
     </row>
     <row r="13" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A13" s="120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
       <c r="E13" s="123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="126" t="s">
@@ -13328,28 +13370,28 @@
     </row>
     <row r="14" spans="1:13" s="109" customFormat="1" ht="33.6">
       <c r="A14" s="120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H14" s="125"/>
       <c r="I14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="126" t="s">
@@ -13359,28 +13401,28 @@
     </row>
     <row r="15" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A15" s="120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="123" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="125"/>
       <c r="I15" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="126" t="s">
@@ -13390,28 +13432,28 @@
     </row>
     <row r="16" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A16" s="120" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
       <c r="E16" s="123" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H16" s="125"/>
       <c r="I16" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="126" t="s">
@@ -13421,28 +13463,28 @@
     </row>
     <row r="17" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A17" s="120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" s="131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F17" s="123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K17" s="125"/>
       <c r="L17" s="126" t="s">
@@ -13452,28 +13494,28 @@
     </row>
     <row r="18" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A18" s="120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
       <c r="E18" s="123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="125"/>
       <c r="I18" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="126" t="s">
@@ -13483,28 +13525,28 @@
     </row>
     <row r="19" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A19" s="120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="123" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="126" t="s">
@@ -13514,28 +13556,28 @@
     </row>
     <row r="20" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A20" s="120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" s="122"/>
       <c r="D20" s="122"/>
       <c r="E20" s="123" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H20" s="125"/>
       <c r="I20" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="126" t="s">
@@ -13545,28 +13587,28 @@
     </row>
     <row r="21" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A21" s="120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" s="131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
       <c r="E21" s="123" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F21" s="123" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K21" s="125"/>
       <c r="L21" s="126" t="s">
@@ -13576,28 +13618,28 @@
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="50.4">
       <c r="A22" s="120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22" s="131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F22" s="123" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H22" s="125"/>
       <c r="I22" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K22" s="125"/>
       <c r="L22" s="126" t="s">
@@ -13607,28 +13649,28 @@
     </row>
     <row r="23" spans="1:13" s="109" customFormat="1" ht="67.2">
       <c r="A23" s="120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F23" s="123" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H23" s="125"/>
       <c r="I23" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K23" s="125"/>
       <c r="L23" s="126" t="s">
@@ -13638,28 +13680,28 @@
     </row>
     <row r="24" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A24" s="120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B24" s="131" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="123" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="123" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K24" s="125"/>
       <c r="L24" s="126" t="s">
@@ -13669,28 +13711,28 @@
     </row>
     <row r="25" spans="1:13" s="109" customFormat="1" ht="84">
       <c r="A25" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
       <c r="E25" s="123" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F25" s="123" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H25" s="125"/>
       <c r="I25" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="125"/>
       <c r="L25" s="126" t="s">
@@ -13699,48 +13741,48 @@
       <c r="M25" s="122"/>
     </row>
     <row r="26" spans="1:13" s="109" customFormat="1">
-      <c r="A26" s="202" t="s">
-        <v>369</v>
-      </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-    </row>
-    <row r="27" spans="1:13" s="109" customFormat="1" ht="84">
+      <c r="A26" s="203" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+    </row>
+    <row r="27" spans="1:13" s="109" customFormat="1" ht="100.8">
       <c r="A27" s="131" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="D27" s="146"/>
       <c r="E27" s="101" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G27" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H27" s="125"/>
       <c r="I27" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K27" s="125"/>
       <c r="L27" s="126" t="s">
@@ -13750,32 +13792,32 @@
     </row>
     <row r="28" spans="1:13" s="109" customFormat="1" ht="103.8" customHeight="1">
       <c r="A28" s="131" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D28" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E28" s="101" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G28" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H28" s="125"/>
       <c r="I28" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K28" s="125"/>
       <c r="L28" s="126" t="s">
@@ -13785,32 +13827,32 @@
     </row>
     <row r="29" spans="1:13" ht="103.8" customHeight="1">
       <c r="A29" s="131" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B29" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="101" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="131" t="s">
-        <v>429</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>415</v>
-      </c>
       <c r="F29" s="101" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G29" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H29" s="125"/>
       <c r="I29" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K29" s="125"/>
       <c r="L29" s="126" t="s">
@@ -13820,32 +13862,32 @@
     </row>
     <row r="30" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A30" s="131" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B30" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="D30" s="131" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="101" t="s">
         <v>416</v>
       </c>
-      <c r="C30" s="101" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="131" t="s">
-        <v>429</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>418</v>
-      </c>
       <c r="F30" s="101" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G30" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H30" s="125"/>
       <c r="I30" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J30" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K30" s="125"/>
       <c r="L30" s="126" t="s">
@@ -13855,32 +13897,32 @@
     </row>
     <row r="31" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A31" s="131" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D31" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F31" s="101" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G31" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H31" s="125"/>
       <c r="I31" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J31" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K31" s="125"/>
       <c r="L31" s="126" t="s">
@@ -13890,32 +13932,32 @@
     </row>
     <row r="32" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A32" s="131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D32" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E32" s="101" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F32" s="101" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G32" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H32" s="125"/>
       <c r="I32" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K32" s="125"/>
       <c r="L32" s="126" t="s">
@@ -13925,32 +13967,32 @@
     </row>
     <row r="33" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A33" s="131" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B33" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" s="131" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="101" t="s">
         <v>419</v>
       </c>
-      <c r="C33" s="101" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="131" t="s">
-        <v>335</v>
-      </c>
-      <c r="E33" s="101" t="s">
-        <v>421</v>
-      </c>
       <c r="F33" s="101" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G33" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H33" s="125"/>
       <c r="I33" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J33" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K33" s="125"/>
       <c r="L33" s="126" t="s">
@@ -13960,32 +14002,32 @@
     </row>
     <row r="34" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A34" s="131" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D34" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E34" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F34" s="135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G34" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H34" s="125"/>
       <c r="I34" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K34" s="125"/>
       <c r="L34" s="126" t="s">
@@ -13995,32 +14037,32 @@
     </row>
     <row r="35" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A35" s="131" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D35" s="131" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E35" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F35" s="135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G35" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H35" s="125"/>
       <c r="I35" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K35" s="125"/>
       <c r="L35" s="126" t="s">
@@ -14030,32 +14072,32 @@
     </row>
     <row r="36" spans="1:13" s="134" customFormat="1" ht="117.6">
       <c r="A36" s="131" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D36" s="131" t="s">
+        <v>579</v>
+      </c>
+      <c r="E36" s="101" t="s">
         <v>584</v>
       </c>
-      <c r="E36" s="101" t="s">
-        <v>589</v>
-      </c>
       <c r="F36" s="135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G36" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H36" s="125"/>
       <c r="I36" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K36" s="125"/>
       <c r="L36" s="126" t="s">
@@ -14065,32 +14107,32 @@
     </row>
     <row r="37" spans="1:13" s="134" customFormat="1" ht="168">
       <c r="A37" s="131" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D37" s="131" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F37" s="135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G37" s="161" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H37" s="125"/>
       <c r="I37" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K37" s="125"/>
       <c r="L37" s="126" t="s">
@@ -14100,32 +14142,32 @@
     </row>
     <row r="38" spans="1:13" s="134" customFormat="1" ht="104.4" customHeight="1">
       <c r="A38" s="131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D38" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F38" s="101" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G38" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H38" s="125"/>
       <c r="I38" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J38" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K38" s="125"/>
       <c r="L38" s="126" t="s">
@@ -14135,32 +14177,32 @@
     </row>
     <row r="39" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A39" s="131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D39" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E39" s="101" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G39" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H39" s="125"/>
       <c r="I39" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J39" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K39" s="125"/>
       <c r="L39" s="126" t="s">
@@ -14170,32 +14212,32 @@
     </row>
     <row r="40" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A40" s="131" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D40" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E40" s="101" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F40" s="101" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G40" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H40" s="125"/>
       <c r="I40" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J40" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K40" s="125"/>
       <c r="L40" s="126" t="s">
@@ -14205,32 +14247,32 @@
     </row>
     <row r="41" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A41" s="131" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B41" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>438</v>
+      </c>
+      <c r="E41" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="C41" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="131" t="s">
-        <v>440</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>443</v>
-      </c>
       <c r="F41" s="101" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G41" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H41" s="125"/>
       <c r="I41" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K41" s="125"/>
       <c r="L41" s="126" t="s">
@@ -14240,32 +14282,32 @@
     </row>
     <row r="42" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A42" s="131" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B42" s="101" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" s="101" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="101" t="s">
-        <v>426</v>
-      </c>
       <c r="D42" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E42" s="101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F42" s="101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G42" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H42" s="125"/>
       <c r="I42" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J42" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K42" s="125"/>
       <c r="L42" s="126" t="s">
@@ -14275,32 +14317,32 @@
     </row>
     <row r="43" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A43" s="131" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B43" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="D43" s="131" t="s">
         <v>427</v>
       </c>
-      <c r="C43" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="D43" s="131" t="s">
-        <v>429</v>
-      </c>
       <c r="E43" s="101" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F43" s="101" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G43" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H43" s="125"/>
       <c r="I43" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J43" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K43" s="125"/>
       <c r="L43" s="126" t="s">
@@ -14310,32 +14352,32 @@
     </row>
     <row r="44" spans="1:13" s="134" customFormat="1" ht="100.8">
       <c r="A44" s="131" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D44" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E44" s="131" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F44" s="131" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G44" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H44" s="125"/>
       <c r="I44" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J44" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K44" s="125"/>
       <c r="L44" s="126" t="s">
@@ -14345,32 +14387,32 @@
     </row>
     <row r="45" spans="1:13" s="134" customFormat="1" ht="103.8" customHeight="1">
       <c r="A45" s="131" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D45" s="131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F45" s="131" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G45" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H45" s="125"/>
       <c r="I45" s="126" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="124" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K45" s="125"/>
       <c r="L45" s="126" t="s">
@@ -14446,13 +14488,6 @@
     <row r="69" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -14461,6 +14496,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G25 J11:J25 J27:J45 G27:G45">

--- a/Document/8.1.ProjectTestCaseSprint1.xlsx
+++ b/Document/8.1.ProjectTestCaseSprint1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A67617-9553-4526-86AF-9FEE8A706972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC122093-E40A-45FC-86FC-FE7E8AA0F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="896" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="529">
   <si>
     <t>TEST CASE SYSTEM SPRINT 1</t>
   </si>
@@ -1842,6 +1842,12 @@
   </si>
   <si>
     <t>Giao diện [Sản phẩm tương tự] không hiển thị và chưa được xử lý</t>
+  </si>
+  <si>
+    <t>Button [Đã hiểu] không biến mất, không thể quay lại màn hình</t>
+  </si>
+  <si>
+    <t>Không thể thấy giao diện "Xem thông tin đơn hàng"</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2470,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2843,18 +2849,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2870,30 +2900,6 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2912,29 +2918,44 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4021,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -4180,12 +4201,6 @@
       </c>
       <c r="E10" s="131" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="8">
-        <f>SUM(D5:D10)</f>
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4218,24 +4233,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="24.6">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.2">
       <c r="A2" s="2"/>
@@ -4259,22 +4274,22 @@
       <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="162"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="59"/>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="155" t="s">
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="60"/>
       <c r="M3" s="60"/>
       <c r="N3" s="60"/>
@@ -4283,20 +4298,20 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A4" s="58"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="158" t="s">
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="160"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="61"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
@@ -4305,20 +4320,20 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A5" s="58"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="61"/>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="152">
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="160">
         <v>44114</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="162"/>
       <c r="L5" s="61"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
@@ -4329,18 +4344,18 @@
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -4350,52 +4365,52 @@
     <row r="7" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151" t="s">
+      <c r="D7" s="159"/>
+      <c r="E7" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151" t="s">
+      <c r="F7" s="159"/>
+      <c r="G7" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151" t="s">
+      <c r="J7" s="159"/>
+      <c r="K7" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="146" t="s">
+      <c r="L7" s="159"/>
+      <c r="M7" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="146"/>
-      <c r="O7" s="147" t="s">
+      <c r="N7" s="156"/>
+      <c r="O7" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="147"/>
+      <c r="P7" s="157"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="16.8">
       <c r="A8" s="67"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="69" t="s">
@@ -5116,13 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -5134,6 +5142,13 @@
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -5144,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K30"/>
+    <sheetView zoomScale="46" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -5222,10 +5237,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="46">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4" s="46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="43">
         <f>COUNTIF(G11:G25,"Untested")</f>
@@ -5235,7 +5250,9 @@
         <f>COUNTIF(G11:G25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="43">
+        <v>19</v>
+      </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
       <c r="J4" s="29"/>
@@ -5244,7 +5261,9 @@
       <c r="A5" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="46">
+        <v>19</v>
+      </c>
       <c r="C5" s="46">
         <v>0</v>
       </c>
@@ -5256,7 +5275,9 @@
         <f>COUNTIF(J11:J25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="43">
+        <v>19</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="J5" s="29"/>
@@ -5380,22 +5401,22 @@
       <c r="F11" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="G11" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="178">
         <v>45781</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K11" s="54">
+      <c r="I11" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" s="178">
         <v>45934</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="81"/>
@@ -5415,22 +5436,22 @@
       <c r="F12" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H12" s="54">
+      <c r="G12" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="178">
         <v>45781</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K12" s="54">
+      <c r="I12" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K12" s="178">
         <v>45934</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M12" s="81"/>
@@ -5450,22 +5471,22 @@
       <c r="F13" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G13" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H13" s="178">
         <v>45781</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K13" s="54">
+      <c r="I13" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K13" s="178">
         <v>45934</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M13" s="81"/>
@@ -5485,22 +5506,22 @@
       <c r="F14" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H14" s="54">
+      <c r="G14" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="178">
         <v>45781</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K14" s="54">
+      <c r="I14" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K14" s="178">
         <v>45934</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M14" s="81"/>
@@ -5520,22 +5541,22 @@
       <c r="F15" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H15" s="54">
+      <c r="G15" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H15" s="178">
         <v>45781</v>
       </c>
-      <c r="I15" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="54">
+      <c r="I15" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K15" s="178">
         <v>45934</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="81"/>
@@ -5555,22 +5576,22 @@
       <c r="F16" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H16" s="54">
+      <c r="G16" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="178">
         <v>45781</v>
       </c>
-      <c r="I16" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K16" s="54">
+      <c r="I16" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K16" s="178">
         <v>45934</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="81"/>
@@ -5590,22 +5611,22 @@
       <c r="F17" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H17" s="54">
+      <c r="G17" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="178">
         <v>45781</v>
       </c>
-      <c r="I17" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K17" s="54">
+      <c r="I17" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K17" s="178">
         <v>45934</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="88"/>
@@ -5625,22 +5646,22 @@
       <c r="F18" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="54">
+      <c r="G18" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="178">
         <v>45781</v>
       </c>
-      <c r="I18" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K18" s="54">
+      <c r="I18" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="178">
         <v>45934</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="88"/>
@@ -5660,22 +5681,22 @@
       <c r="F19" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H19" s="54">
+      <c r="G19" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" s="178">
         <v>45781</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K19" s="54">
+      <c r="I19" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K19" s="178">
         <v>45934</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M19" s="88"/>
@@ -5695,22 +5716,22 @@
       <c r="F20" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="G20" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" s="178">
         <v>45781</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K20" s="54">
+      <c r="I20" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K20" s="178">
         <v>45934</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M20" s="88"/>
@@ -5749,22 +5770,22 @@
       <c r="F22" s="92" t="s">
         <v>486</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H22" s="54">
+      <c r="G22" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H22" s="178">
         <v>45781</v>
       </c>
-      <c r="I22" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K22" s="54">
+      <c r="I22" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K22" s="178">
         <v>45934</v>
       </c>
-      <c r="L22" s="55" t="s">
+      <c r="L22" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M22" s="81"/>
@@ -5788,22 +5809,22 @@
       <c r="F23" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="G23" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H23" s="54">
+      <c r="G23" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" s="178">
         <v>45781</v>
       </c>
-      <c r="I23" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K23" s="54">
+      <c r="I23" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="178">
         <v>45934</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M23" s="81"/>
@@ -5827,22 +5848,22 @@
       <c r="F24" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="178">
         <v>45781</v>
       </c>
-      <c r="I24" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="53" t="s">
+      <c r="I24" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="178">
         <v>45934</v>
       </c>
-      <c r="L24" s="55" t="s">
+      <c r="L24" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M24" s="81"/>
@@ -5866,22 +5887,22 @@
       <c r="F25" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H25" s="54">
+      <c r="G25" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H25" s="178">
         <v>45781</v>
       </c>
-      <c r="I25" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K25" s="54">
+      <c r="I25" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K25" s="178">
         <v>45934</v>
       </c>
-      <c r="L25" s="55" t="s">
+      <c r="L25" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M25" s="81"/>
@@ -5905,22 +5926,22 @@
       <c r="F26" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="178">
         <v>45781</v>
       </c>
-      <c r="I26" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K26" s="54">
+      <c r="I26" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="178">
         <v>45934</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M26" s="81"/>
@@ -5944,22 +5965,22 @@
       <c r="F27" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H27" s="54">
+      <c r="G27" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" s="178">
         <v>45781</v>
       </c>
-      <c r="I27" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K27" s="54">
+      <c r="I27" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K27" s="178">
         <v>45934</v>
       </c>
-      <c r="L27" s="55" t="s">
+      <c r="L27" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M27" s="81"/>
@@ -5983,22 +6004,22 @@
       <c r="F28" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="178">
         <v>45781</v>
       </c>
-      <c r="I28" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K28" s="54">
+      <c r="I28" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K28" s="178">
         <v>45934</v>
       </c>
-      <c r="L28" s="55" t="s">
+      <c r="L28" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M28" s="81"/>
@@ -6022,22 +6043,22 @@
       <c r="F29" s="92" t="s">
         <v>493</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="178">
         <v>45781</v>
       </c>
-      <c r="I29" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K29" s="54">
+      <c r="I29" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K29" s="178">
         <v>45934</v>
       </c>
-      <c r="L29" s="55" t="s">
+      <c r="L29" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M29" s="81"/>
@@ -6061,22 +6082,22 @@
       <c r="F30" s="92" t="s">
         <v>494</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="178">
         <v>45781</v>
       </c>
-      <c r="I30" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K30" s="54">
+      <c r="I30" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K30" s="178">
         <v>45934</v>
       </c>
-      <c r="L30" s="55" t="s">
+      <c r="L30" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M30" s="81"/>
@@ -6128,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K46"/>
+    <sheetView zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -6147,20 +6168,22 @@
     <col min="11" max="11" width="21.5546875" style="117" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="117" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="117" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="117"/>
+    <col min="14" max="14" width="9.109375" style="117"/>
+    <col min="15" max="15" width="11.5546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="117"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="97" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
       <c r="J1" s="95"/>
@@ -6169,13 +6192,13 @@
       <c r="A2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="95"/>
       <c r="H2" s="96"/>
       <c r="J2" s="95"/>
@@ -6206,10 +6229,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="101">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C4" s="101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="98">
         <f>COUNTIF(G11:G25,"Untested")</f>
@@ -6219,7 +6242,9 @@
         <f>COUNTIF(G11:G25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="98">
+        <v>35</v>
+      </c>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
       <c r="J4" s="95"/>
@@ -6228,7 +6253,9 @@
       <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="101">
+        <v>35</v>
+      </c>
       <c r="C5" s="101">
         <v>0</v>
       </c>
@@ -6240,7 +6267,9 @@
         <f>COUNTIF(J11:J25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="98">
+        <v>35</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="96"/>
       <c r="J5" s="95"/>
@@ -6334,21 +6363,21 @@
       <c r="M9" s="171"/>
     </row>
     <row r="10" spans="1:13" s="97" customFormat="1">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="172" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13" s="97" customFormat="1" ht="134.4">
       <c r="A11" s="108" t="s">
@@ -6365,22 +6394,22 @@
       <c r="F11" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="G11" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="178">
         <v>45781</v>
       </c>
-      <c r="I11" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K11" s="54">
+      <c r="I11" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" s="178">
         <v>45934</v>
       </c>
-      <c r="L11" s="113" t="s">
+      <c r="L11" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="110"/>
@@ -6400,22 +6429,22 @@
       <c r="F12" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H12" s="54">
+      <c r="G12" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="178">
         <v>45781</v>
       </c>
-      <c r="I12" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K12" s="54">
+      <c r="I12" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K12" s="178">
         <v>45934</v>
       </c>
-      <c r="L12" s="113" t="s">
+      <c r="L12" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M12" s="110"/>
@@ -6435,22 +6464,22 @@
       <c r="F13" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G13" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H13" s="178">
         <v>45781</v>
       </c>
-      <c r="I13" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K13" s="54">
+      <c r="I13" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K13" s="178">
         <v>45934</v>
       </c>
-      <c r="L13" s="113" t="s">
+      <c r="L13" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M13" s="110"/>
@@ -6470,22 +6499,22 @@
       <c r="F14" s="132" t="s">
         <v>465</v>
       </c>
-      <c r="G14" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H14" s="54">
+      <c r="G14" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="178">
         <v>45781</v>
       </c>
-      <c r="I14" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K14" s="54">
+      <c r="I14" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K14" s="178">
         <v>45934</v>
       </c>
-      <c r="L14" s="113" t="s">
+      <c r="L14" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M14" s="110"/>
@@ -6505,22 +6534,22 @@
       <c r="F15" s="132" t="s">
         <v>467</v>
       </c>
-      <c r="G15" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H15" s="54">
+      <c r="G15" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H15" s="178">
         <v>45781</v>
       </c>
-      <c r="I15" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="54">
+      <c r="I15" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K15" s="178">
         <v>45934</v>
       </c>
-      <c r="L15" s="113" t="s">
+      <c r="L15" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="110"/>
@@ -6540,22 +6569,22 @@
       <c r="F16" s="132" t="s">
         <v>471</v>
       </c>
-      <c r="G16" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H16" s="54">
+      <c r="G16" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="178">
         <v>45781</v>
       </c>
-      <c r="I16" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K16" s="54">
+      <c r="I16" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K16" s="178">
         <v>45934</v>
       </c>
-      <c r="L16" s="113" t="s">
+      <c r="L16" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="110"/>
@@ -6575,22 +6604,22 @@
       <c r="F17" s="132" t="s">
         <v>469</v>
       </c>
-      <c r="G17" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H17" s="54">
+      <c r="G17" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="178">
         <v>45781</v>
       </c>
-      <c r="I17" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K17" s="54">
+      <c r="I17" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K17" s="178">
         <v>45934</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L17" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="110"/>
@@ -6610,22 +6639,22 @@
       <c r="F18" s="132" t="s">
         <v>473</v>
       </c>
-      <c r="G18" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="54">
+      <c r="G18" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="178">
         <v>45781</v>
       </c>
-      <c r="I18" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K18" s="54">
+      <c r="I18" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="178">
         <v>45934</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="110"/>
@@ -6645,22 +6674,22 @@
       <c r="F19" s="132" t="s">
         <v>475</v>
       </c>
-      <c r="G19" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H19" s="54">
+      <c r="G19" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" s="178">
         <v>45781</v>
       </c>
-      <c r="I19" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K19" s="54">
+      <c r="I19" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K19" s="178">
         <v>45934</v>
       </c>
-      <c r="L19" s="113" t="s">
+      <c r="L19" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M19" s="110"/>
@@ -6680,42 +6709,42 @@
       <c r="F20" s="132" t="s">
         <v>477</v>
       </c>
-      <c r="G20" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="G20" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" s="178">
         <v>45781</v>
       </c>
-      <c r="I20" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K20" s="54">
+      <c r="I20" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K20" s="178">
         <v>45934</v>
       </c>
-      <c r="L20" s="113" t="s">
+      <c r="L20" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:13" s="97" customFormat="1">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="169" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
     </row>
     <row r="22" spans="1:13" s="97" customFormat="1" ht="67.2">
       <c r="A22" s="115" t="s">
@@ -6734,22 +6763,22 @@
       <c r="F22" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H22" s="54">
+      <c r="G22" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H22" s="178">
         <v>45781</v>
       </c>
-      <c r="I22" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K22" s="54">
+      <c r="I22" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K22" s="178">
         <v>45934</v>
       </c>
-      <c r="L22" s="113" t="s">
+      <c r="L22" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M22" s="110"/>
@@ -6773,22 +6802,22 @@
       <c r="F23" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H23" s="54">
+      <c r="G23" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" s="178">
         <v>45781</v>
       </c>
-      <c r="I23" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K23" s="54">
+      <c r="I23" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="178">
         <v>45934</v>
       </c>
-      <c r="L23" s="113" t="s">
+      <c r="L23" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M23" s="110"/>
@@ -6812,22 +6841,22 @@
       <c r="F24" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H24" s="54">
+      <c r="G24" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H24" s="178">
         <v>45781</v>
       </c>
-      <c r="I24" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K24" s="54">
+      <c r="I24" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K24" s="178">
         <v>45934</v>
       </c>
-      <c r="L24" s="113" t="s">
+      <c r="L24" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M24" s="121"/>
@@ -6851,22 +6880,22 @@
       <c r="F25" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H25" s="54">
+      <c r="G25" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H25" s="178">
         <v>45781</v>
       </c>
-      <c r="I25" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K25" s="54">
+      <c r="I25" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K25" s="178">
         <v>45934</v>
       </c>
-      <c r="L25" s="113" t="s">
+      <c r="L25" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M25" s="120"/>
@@ -6890,22 +6919,22 @@
       <c r="F26" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H26" s="54">
+      <c r="G26" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H26" s="178">
         <v>45781</v>
       </c>
-      <c r="I26" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K26" s="54">
+      <c r="I26" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="178">
         <v>45934</v>
       </c>
-      <c r="L26" s="113" t="s">
+      <c r="L26" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M26" s="120"/>
@@ -6929,22 +6958,22 @@
       <c r="F27" s="120" t="s">
         <v>495</v>
       </c>
-      <c r="G27" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H27" s="54">
+      <c r="G27" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" s="178">
         <v>45781</v>
       </c>
-      <c r="I27" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K27" s="54">
+      <c r="I27" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K27" s="178">
         <v>45934</v>
       </c>
-      <c r="L27" s="113" t="s">
+      <c r="L27" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M27" s="120"/>
@@ -6968,22 +6997,22 @@
       <c r="F28" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H28" s="54">
+      <c r="G28" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H28" s="178">
         <v>45781</v>
       </c>
-      <c r="I28" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K28" s="54">
+      <c r="I28" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K28" s="178">
         <v>45934</v>
       </c>
-      <c r="L28" s="113" t="s">
+      <c r="L28" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M28" s="120"/>
@@ -7007,22 +7036,22 @@
       <c r="F29" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H29" s="54">
+      <c r="G29" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="178">
         <v>45781</v>
       </c>
-      <c r="I29" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K29" s="54">
+      <c r="I29" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K29" s="178">
         <v>45934</v>
       </c>
-      <c r="L29" s="113" t="s">
+      <c r="L29" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M29" s="120"/>
@@ -7046,22 +7075,22 @@
       <c r="F30" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G30" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H30" s="54">
+      <c r="G30" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H30" s="178">
         <v>45781</v>
       </c>
-      <c r="I30" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K30" s="54">
+      <c r="I30" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K30" s="178">
         <v>45934</v>
       </c>
-      <c r="L30" s="113" t="s">
+      <c r="L30" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M30" s="120"/>
@@ -7085,22 +7114,22 @@
       <c r="F31" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="178">
         <v>45781</v>
       </c>
-      <c r="I31" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="112" t="s">
+      <c r="I31" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="178">
         <v>45934</v>
       </c>
-      <c r="L31" s="113" t="s">
+      <c r="L31" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M31" s="120"/>
@@ -7124,22 +7153,22 @@
       <c r="F32" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G32" s="112" t="s">
+      <c r="G32" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="178">
         <v>45781</v>
       </c>
-      <c r="I32" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="112" t="s">
+      <c r="I32" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32" s="178">
         <v>45934</v>
       </c>
-      <c r="L32" s="113" t="s">
+      <c r="L32" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M32" s="120"/>
@@ -7163,22 +7192,22 @@
       <c r="F33" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="178">
         <v>45781</v>
       </c>
-      <c r="I33" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="112" t="s">
+      <c r="I33" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K33" s="178">
         <v>45934</v>
       </c>
-      <c r="L33" s="113" t="s">
+      <c r="L33" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M33" s="120"/>
@@ -7202,22 +7231,22 @@
       <c r="F34" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G34" s="112" t="s">
+      <c r="G34" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="178">
         <v>45781</v>
       </c>
-      <c r="I34" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="112" t="s">
+      <c r="I34" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="178">
         <v>45934</v>
       </c>
-      <c r="L34" s="113" t="s">
+      <c r="L34" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M34" s="120"/>
@@ -7241,22 +7270,22 @@
       <c r="F35" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="178">
         <v>45781</v>
       </c>
-      <c r="I35" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="112" t="s">
+      <c r="I35" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K35" s="54">
+      <c r="K35" s="178">
         <v>45934</v>
       </c>
-      <c r="L35" s="113" t="s">
+      <c r="L35" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="120"/>
@@ -7280,22 +7309,22 @@
       <c r="F36" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="178">
         <v>45781</v>
       </c>
-      <c r="I36" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="112" t="s">
+      <c r="I36" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="178">
         <v>45934</v>
       </c>
-      <c r="L36" s="113" t="s">
+      <c r="L36" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="120"/>
@@ -7319,22 +7348,22 @@
       <c r="F37" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="178">
         <v>45781</v>
       </c>
-      <c r="I37" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="112" t="s">
+      <c r="I37" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="178">
         <v>45934</v>
       </c>
-      <c r="L37" s="113" t="s">
+      <c r="L37" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M37" s="120"/>
@@ -7358,22 +7387,22 @@
       <c r="F38" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="G38" s="112" t="s">
+      <c r="G38" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="178">
         <v>45781</v>
       </c>
-      <c r="I38" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="112" t="s">
+      <c r="I38" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="K38" s="54">
+      <c r="K38" s="178">
         <v>45934</v>
       </c>
-      <c r="L38" s="113" t="s">
+      <c r="L38" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M38" s="120"/>
@@ -7397,22 +7426,22 @@
       <c r="F39" s="123" t="s">
         <v>497</v>
       </c>
-      <c r="G39" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H39" s="54">
+      <c r="G39" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H39" s="178">
         <v>45781</v>
       </c>
-      <c r="I39" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K39" s="54">
+      <c r="I39" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K39" s="178">
         <v>45934</v>
       </c>
-      <c r="L39" s="113" t="s">
+      <c r="L39" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M39" s="120"/>
@@ -7436,22 +7465,22 @@
       <c r="F40" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="G40" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H40" s="54">
+      <c r="G40" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H40" s="178">
         <v>45781</v>
       </c>
-      <c r="I40" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K40" s="54">
+      <c r="I40" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K40" s="178">
         <v>45934</v>
       </c>
-      <c r="L40" s="113" t="s">
+      <c r="L40" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M40" s="120"/>
@@ -7475,22 +7504,22 @@
       <c r="F41" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="G41" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H41" s="54">
+      <c r="G41" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H41" s="178">
         <v>45781</v>
       </c>
-      <c r="I41" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K41" s="54">
+      <c r="I41" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K41" s="178">
         <v>45934</v>
       </c>
-      <c r="L41" s="113" t="s">
+      <c r="L41" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M41" s="120"/>
@@ -7514,22 +7543,22 @@
       <c r="F42" s="123" t="s">
         <v>424</v>
       </c>
-      <c r="G42" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H42" s="54">
+      <c r="G42" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H42" s="178">
         <v>45781</v>
       </c>
-      <c r="I42" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K42" s="54">
+      <c r="I42" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K42" s="178">
         <v>45934</v>
       </c>
-      <c r="L42" s="113" t="s">
+      <c r="L42" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M42" s="120"/>
@@ -7553,22 +7582,22 @@
       <c r="F43" s="123" t="s">
         <v>498</v>
       </c>
-      <c r="G43" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H43" s="54">
+      <c r="G43" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H43" s="178">
         <v>45781</v>
       </c>
-      <c r="I43" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K43" s="54">
+      <c r="I43" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K43" s="178">
         <v>45934</v>
       </c>
-      <c r="L43" s="113" t="s">
+      <c r="L43" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M43" s="120"/>
@@ -7592,22 +7621,22 @@
       <c r="F44" s="123" t="s">
         <v>430</v>
       </c>
-      <c r="G44" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H44" s="54">
+      <c r="G44" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H44" s="178">
         <v>45781</v>
       </c>
-      <c r="I44" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K44" s="54">
+      <c r="I44" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K44" s="178">
         <v>45934</v>
       </c>
-      <c r="L44" s="113" t="s">
+      <c r="L44" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M44" s="120"/>
@@ -7631,22 +7660,22 @@
       <c r="F45" s="123" t="s">
         <v>500</v>
       </c>
-      <c r="G45" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H45" s="54">
+      <c r="G45" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H45" s="178">
         <v>45781</v>
       </c>
-      <c r="I45" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K45" s="54">
+      <c r="I45" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K45" s="178">
         <v>45934</v>
       </c>
-      <c r="L45" s="113" t="s">
+      <c r="L45" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M45" s="120"/>
@@ -7670,22 +7699,22 @@
       <c r="F46" s="123" t="s">
         <v>427</v>
       </c>
-      <c r="G46" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="H46" s="54">
+      <c r="G46" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="H46" s="178">
         <v>45781</v>
       </c>
-      <c r="I46" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="K46" s="54">
+      <c r="I46" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="180" t="s">
+        <v>487</v>
+      </c>
+      <c r="K46" s="178">
         <v>45934</v>
       </c>
-      <c r="L46" s="113" t="s">
+      <c r="L46" s="181" t="s">
         <v>63</v>
       </c>
       <c r="M46" s="120"/>
@@ -7760,13 +7789,6 @@
     <row r="63" spans="1:13" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -7775,6 +7797,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J11:J20 G22:G46 G11:G20 J22:J46" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7792,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -7818,13 +7847,13 @@
       <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
       <c r="J1" s="95"/>
@@ -7833,13 +7862,13 @@
       <c r="A2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="95"/>
       <c r="H2" s="96"/>
       <c r="J2" s="95"/>
@@ -7870,10 +7899,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="98">
         <f>COUNTIF(G11:G18,"Untested")</f>
@@ -7883,7 +7912,9 @@
         <f>COUNTIF(G11:G18,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="98">
+        <v>9</v>
+      </c>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
       <c r="J4" s="95"/>
@@ -7892,7 +7923,9 @@
       <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="101">
+        <v>9</v>
+      </c>
       <c r="C5" s="101">
         <v>0</v>
       </c>
@@ -7904,7 +7937,9 @@
         <f>COUNTIF(J11:J18,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="98">
+        <v>9</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="96"/>
       <c r="J5" s="95"/>
@@ -8029,22 +8064,22 @@
       <c r="F11" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="G11" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="178">
         <v>45812</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K11" s="54">
+      <c r="I11" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" s="178">
         <v>45965</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="81"/>
@@ -8064,22 +8099,22 @@
       <c r="F12" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H12" s="54">
+      <c r="G12" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H12" s="178">
         <v>45812</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K12" s="54">
+      <c r="I12" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K12" s="178">
         <v>45965</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M12" s="81"/>
@@ -8099,22 +8134,22 @@
       <c r="F13" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G13" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H13" s="178">
         <v>45812</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K13" s="54">
+      <c r="I13" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K13" s="178">
         <v>45965</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M13" s="81"/>
@@ -8153,22 +8188,22 @@
       <c r="F15" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H15" s="54">
+      <c r="G15" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H15" s="178">
         <v>45812</v>
       </c>
-      <c r="I15" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="54">
+      <c r="I15" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K15" s="178">
         <v>45965</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M15" s="81"/>
@@ -8192,22 +8227,22 @@
       <c r="F16" s="92" t="s">
         <v>501</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="178">
         <v>45812</v>
       </c>
-      <c r="I16" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K16" s="54">
+      <c r="I16" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K16" s="178">
         <v>45965</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M16" s="81"/>
@@ -8231,22 +8266,22 @@
       <c r="F17" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H17" s="54">
+      <c r="G17" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="178">
         <v>45812</v>
       </c>
-      <c r="I17" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K17" s="54">
+      <c r="I17" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K17" s="178">
         <v>45965</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="137"/>
@@ -8270,22 +8305,22 @@
       <c r="F18" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="54">
+      <c r="G18" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="178">
         <v>45812</v>
       </c>
-      <c r="I18" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K18" s="54">
+      <c r="I18" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K18" s="178">
         <v>45965</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="138"/>
@@ -8309,22 +8344,22 @@
       <c r="F19" s="138" t="s">
         <v>502</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="177" t="s">
         <v>489</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="178">
         <v>45812</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K19" s="54">
+      <c r="I19" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K19" s="178">
         <v>45965</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M19" s="138"/>
@@ -8348,22 +8383,22 @@
       <c r="F20" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="G20" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" s="178">
         <v>45812</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="K20" s="54">
+      <c r="I20" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="177" t="s">
+        <v>487</v>
+      </c>
+      <c r="K20" s="178">
         <v>45965</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="179" t="s">
         <v>63</v>
       </c>
       <c r="M20" s="138"/>
@@ -8441,13 +8476,6 @@
     <row r="49" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -8456,6 +8484,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J11:J13 J15:J20 G11:G13 G15:G20" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -8473,8 +8508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="Q18" zoomScale="36" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView zoomScale="51" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -8499,13 +8534,13 @@
       <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
       <c r="J1" s="95"/>
@@ -8514,13 +8549,13 @@
       <c r="A2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="95"/>
       <c r="H2" s="96"/>
       <c r="J2" s="95"/>
@@ -8551,10 +8586,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="101">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="98">
         <f>COUNTIF(G11:G30,"Untested")</f>
@@ -8564,7 +8599,9 @@
         <f>COUNTIF(G11:G30,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="98">
+        <v>34</v>
+      </c>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
       <c r="J4" s="95"/>
@@ -8573,7 +8610,9 @@
       <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="101">
+        <v>34</v>
+      </c>
       <c r="C5" s="101">
         <v>0</v>
       </c>
@@ -8585,7 +8624,9 @@
         <f>COUNTIF(J11:J30,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="98">
+        <v>34</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="96"/>
       <c r="J5" s="95"/>
@@ -10046,13 +10087,6 @@
     <row r="69" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -10061,6 +10095,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G25 J11:J25 J27:J45 G27:G45" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -10078,8 +10119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -10104,13 +10145,13 @@
       <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
       <c r="J1" s="95"/>
@@ -10119,13 +10160,13 @@
       <c r="A2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="95"/>
       <c r="H2" s="96"/>
       <c r="J2" s="95"/>
@@ -10156,10 +10197,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="98">
         <f>COUNTIF(G11:G19,"Untested")</f>
@@ -10169,7 +10210,9 @@
         <f>COUNTIF(G11:G19,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="98">
+        <v>9</v>
+      </c>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
       <c r="J4" s="95"/>
@@ -10178,7 +10221,9 @@
       <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="101">
+        <v>9</v>
+      </c>
       <c r="C5" s="101">
         <v>0</v>
       </c>
@@ -10190,7 +10235,9 @@
         <f>COUNTIF(J11:J19,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="98">
+        <v>9</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="96"/>
       <c r="J5" s="95"/>
@@ -10285,21 +10332,21 @@
       <c r="M9" s="171"/>
     </row>
     <row r="10" spans="1:13" s="97" customFormat="1">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="172" t="s">
         <v>395</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13" s="97" customFormat="1" ht="84">
       <c r="A11" s="108" t="s">
@@ -10553,10 +10600,10 @@
         <v>410</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>410</v>
+        <v>527</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H18" s="54">
         <v>45812</v>
@@ -10592,10 +10639,10 @@
         <v>366</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H19" s="54">
         <v>45812</v>
@@ -10732,13 +10779,6 @@
     <row r="41" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -10747,6 +10787,13 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G14 J11:J14 G16:G20 J16:J20" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -10764,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -10790,13 +10837,13 @@
       <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="95"/>
       <c r="H1" s="96"/>
       <c r="J1" s="95"/>
@@ -10805,13 +10852,13 @@
       <c r="A2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="95"/>
       <c r="H2" s="96"/>
       <c r="J2" s="95"/>
@@ -10842,10 +10889,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="101">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4" s="101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="98">
         <f>COUNTIF(G11:G25,"Untested")</f>
@@ -10855,7 +10902,9 @@
         <f>COUNTIF(G11:G25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="98">
+        <v>18</v>
+      </c>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
       <c r="J4" s="95"/>
@@ -10864,7 +10913,9 @@
       <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="101">
+        <v>18</v>
+      </c>
       <c r="C5" s="101">
         <v>0</v>
       </c>
@@ -10876,7 +10927,9 @@
         <f>COUNTIF(J11:J25,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="98">
+        <v>18</v>
+      </c>
       <c r="G5" s="95"/>
       <c r="H5" s="96"/>
       <c r="J5" s="95"/>
@@ -10971,21 +11024,21 @@
       <c r="M9" s="171"/>
     </row>
     <row r="10" spans="1:13" s="97" customFormat="1">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="172" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13" s="97" customFormat="1" ht="84">
       <c r="A11" s="108" t="s">
@@ -11381,12 +11434,18 @@
       <c r="H22" s="54">
         <v>45842</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="112"/>
+      <c r="I22" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="112" t="s">
+        <v>487</v>
+      </c>
       <c r="K22" s="54">
         <v>45751</v>
       </c>
-      <c r="L22" s="113"/>
+      <c r="L22" s="113" t="s">
+        <v>63</v>
+      </c>
       <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" s="97" customFormat="1" ht="103.8" customHeight="1">
@@ -11737,6 +11796,13 @@
     <row r="50" ht="103.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -11745,16 +11811,9 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 J21:J29 G21:G29" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G19 J11:J19 G21:G29 J21:J29" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
